--- a/data/卡模/Answer Sheet.xlsx
+++ b/data/卡模/Answer Sheet.xlsx
@@ -482,10 +482,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -534,9 +533,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -877,8 +873,8 @@
   </sheetPr>
   <dimension ref="D1:AO91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -886,163 +882,163 @@
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="6.21875" customWidth="1"/>
     <col min="10" max="11" width="4" customWidth="1"/>
-    <col min="12" max="12" width="4" style="18" customWidth="1"/>
+    <col min="12" max="12" width="4" style="17" customWidth="1"/>
     <col min="13" max="13" width="4" customWidth="1"/>
-    <col min="14" max="14" width="4" style="18" customWidth="1"/>
+    <col min="14" max="14" width="4" style="17" customWidth="1"/>
     <col min="15" max="16" width="4" customWidth="1"/>
-    <col min="17" max="17" width="4" style="11" customWidth="1"/>
+    <col min="17" max="17" width="4" style="10" customWidth="1"/>
     <col min="18" max="24" width="4" customWidth="1"/>
-    <col min="25" max="25" width="4" style="11" customWidth="1"/>
+    <col min="25" max="25" width="4" style="10" customWidth="1"/>
     <col min="26" max="32" width="4" customWidth="1"/>
-    <col min="33" max="33" width="4" style="11" customWidth="1"/>
+    <col min="33" max="33" width="4" style="10" customWidth="1"/>
     <col min="34" max="41" width="4" customWidth="1"/>
     <col min="42" max="42" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="10:41" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="10:41" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49" t="s">
+      <c r="S2" s="47"/>
+      <c r="T2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49" t="s">
+      <c r="U2" s="47"/>
+      <c r="V2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49" t="s">
+      <c r="W2" s="47"/>
+      <c r="X2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="49" t="s">
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49" t="s">
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49" t="s">
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49" t="s">
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49" t="s">
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49" t="s">
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49" t="s">
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49" t="s">
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AO2" s="50"/>
+      <c r="AO2" s="48"/>
     </row>
     <row r="3" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="4"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="3"/>
     </row>
     <row r="4" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="34"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="20"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="16">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="15">
         <v>1</v>
       </c>
-      <c r="R4" s="24"/>
+      <c r="R4" s="23"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="24"/>
+      <c r="T4" s="23"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="13">
+      <c r="X4" s="23"/>
+      <c r="Y4" s="12">
         <v>21</v>
       </c>
-      <c r="Z4" s="24"/>
+      <c r="Z4" s="23"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="24"/>
+      <c r="AB4" s="23"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="24"/>
+      <c r="AD4" s="23"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="13">
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="12">
         <v>41</v>
       </c>
-      <c r="AH4" s="24"/>
+      <c r="AH4" s="23"/>
       <c r="AI4" s="1"/>
-      <c r="AJ4" s="24"/>
+      <c r="AJ4" s="23"/>
       <c r="AK4" s="1"/>
-      <c r="AL4" s="24"/>
+      <c r="AL4" s="23"/>
       <c r="AM4" s="1"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="6"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="5"/>
     </row>
     <row r="5" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J5" s="34"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="16"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="15"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1050,7 +1046,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="13"/>
+      <c r="Y5" s="12"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -1058,7 +1054,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="13"/>
+      <c r="AG5" s="12"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
@@ -1066,59 +1062,59 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="6"/>
+      <c r="AO5" s="5"/>
     </row>
     <row r="6" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="16">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="15">
         <v>2</v>
       </c>
-      <c r="R6" s="24"/>
+      <c r="R6" s="23"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="24"/>
+      <c r="T6" s="23"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="24"/>
+      <c r="V6" s="23"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="13">
+      <c r="X6" s="23"/>
+      <c r="Y6" s="12">
         <v>22</v>
       </c>
-      <c r="Z6" s="24"/>
+      <c r="Z6" s="23"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="24"/>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="24"/>
+      <c r="AD6" s="23"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="13">
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="12">
         <v>42</v>
       </c>
-      <c r="AH6" s="24"/>
+      <c r="AH6" s="23"/>
       <c r="AI6" s="1"/>
-      <c r="AJ6" s="24"/>
+      <c r="AJ6" s="23"/>
       <c r="AK6" s="1"/>
-      <c r="AL6" s="24"/>
+      <c r="AL6" s="23"/>
       <c r="AM6" s="1"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="6"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="5"/>
     </row>
     <row r="7" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="34"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="16"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="15"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1126,7 +1122,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="13"/>
+      <c r="Y7" s="12"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -1134,7 +1130,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="13"/>
+      <c r="AG7" s="12"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
@@ -1142,59 +1138,59 @@
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
-      <c r="AO7" s="6"/>
+      <c r="AO7" s="5"/>
     </row>
     <row r="8" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J8" s="34"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="16">
+      <c r="J8" s="32"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="15">
         <v>3</v>
       </c>
-      <c r="R8" s="24"/>
+      <c r="R8" s="23"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="24"/>
+      <c r="T8" s="23"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="24"/>
+      <c r="V8" s="23"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="13">
+      <c r="X8" s="23"/>
+      <c r="Y8" s="12">
         <v>23</v>
       </c>
-      <c r="Z8" s="24"/>
+      <c r="Z8" s="23"/>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="24"/>
+      <c r="AB8" s="23"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="24"/>
+      <c r="AD8" s="23"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="13">
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="12">
         <v>43</v>
       </c>
-      <c r="AH8" s="24"/>
+      <c r="AH8" s="23"/>
       <c r="AI8" s="1"/>
-      <c r="AJ8" s="24"/>
+      <c r="AJ8" s="23"/>
       <c r="AK8" s="1"/>
-      <c r="AL8" s="24"/>
+      <c r="AL8" s="23"/>
       <c r="AM8" s="1"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="6"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="5"/>
     </row>
     <row r="9" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="20"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="20"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="16"/>
+      <c r="Q9" s="15"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1202,7 +1198,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="13"/>
+      <c r="Y9" s="12"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -1210,7 +1206,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="13"/>
+      <c r="AG9" s="12"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
@@ -1218,59 +1214,59 @@
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
-      <c r="AO9" s="6"/>
+      <c r="AO9" s="5"/>
     </row>
     <row r="10" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="33" t="s">
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="20"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="19"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="16">
+      <c r="Q10" s="15">
         <v>4</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="24"/>
+      <c r="T10" s="23"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="24"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="13">
+      <c r="X10" s="23"/>
+      <c r="Y10" s="12">
         <v>24</v>
       </c>
-      <c r="Z10" s="24"/>
+      <c r="Z10" s="23"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="24"/>
+      <c r="AB10" s="23"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="24"/>
+      <c r="AD10" s="23"/>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="13">
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="12">
         <v>44</v>
       </c>
-      <c r="AH10" s="24"/>
+      <c r="AH10" s="23"/>
       <c r="AI10" s="1"/>
-      <c r="AJ10" s="24"/>
+      <c r="AJ10" s="23"/>
       <c r="AK10" s="1"/>
-      <c r="AL10" s="24"/>
+      <c r="AL10" s="23"/>
       <c r="AM10" s="1"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="6"/>
+      <c r="AN10" s="23"/>
+      <c r="AO10" s="5"/>
     </row>
     <row r="11" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="23"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="22"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="16"/>
+      <c r="Q11" s="15"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1278,7 +1274,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="13"/>
+      <c r="Y11" s="12"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -1286,7 +1282,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="13"/>
+      <c r="AG11" s="12"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
@@ -1294,65 +1290,65 @@
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
-      <c r="AO11" s="6"/>
+      <c r="AO11" s="5"/>
     </row>
     <row r="12" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="33" t="s">
+      <c r="J12" s="53"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="20"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="19"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="16">
+      <c r="Q12" s="15">
         <v>5</v>
       </c>
-      <c r="R12" s="24"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="24"/>
+      <c r="T12" s="23"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="24"/>
+      <c r="V12" s="23"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="13">
+      <c r="X12" s="23"/>
+      <c r="Y12" s="12">
         <v>25</v>
       </c>
-      <c r="Z12" s="24"/>
+      <c r="Z12" s="23"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="24"/>
+      <c r="AB12" s="23"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="24"/>
+      <c r="AD12" s="23"/>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="13">
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="12">
         <v>45</v>
       </c>
-      <c r="AH12" s="24"/>
+      <c r="AH12" s="23"/>
       <c r="AI12" s="1"/>
-      <c r="AJ12" s="24"/>
+      <c r="AJ12" s="23"/>
       <c r="AK12" s="1"/>
-      <c r="AL12" s="24"/>
+      <c r="AL12" s="23"/>
       <c r="AM12" s="1"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="6"/>
+      <c r="AN12" s="23"/>
+      <c r="AO12" s="5"/>
     </row>
     <row r="13" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="21" t="s">
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="51" t="s">
+      <c r="P13" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="16"/>
+      <c r="Q13" s="15"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1360,7 +1356,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="13"/>
+      <c r="Y13" s="12"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -1368,7 +1364,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="13"/>
+      <c r="AG13" s="12"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
@@ -1376,57 +1372,57 @@
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
-      <c r="AO13" s="6"/>
+      <c r="AO13" s="5"/>
     </row>
     <row r="14" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="20"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="20"/>
+      <c r="N14" s="19"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="16">
+      <c r="Q14" s="15">
         <v>6</v>
       </c>
-      <c r="R14" s="24"/>
+      <c r="R14" s="23"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="24"/>
+      <c r="T14" s="23"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="24"/>
+      <c r="V14" s="23"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="13">
+      <c r="X14" s="23"/>
+      <c r="Y14" s="12">
         <v>26</v>
       </c>
-      <c r="Z14" s="24"/>
+      <c r="Z14" s="23"/>
       <c r="AA14" s="1"/>
-      <c r="AB14" s="24"/>
+      <c r="AB14" s="23"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="24"/>
+      <c r="AD14" s="23"/>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="13">
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="12">
         <v>46</v>
       </c>
-      <c r="AH14" s="24"/>
+      <c r="AH14" s="23"/>
       <c r="AI14" s="1"/>
-      <c r="AJ14" s="24"/>
+      <c r="AJ14" s="23"/>
       <c r="AK14" s="1"/>
-      <c r="AL14" s="24"/>
+      <c r="AL14" s="23"/>
       <c r="AM14" s="1"/>
-      <c r="AN14" s="24"/>
-      <c r="AO14" s="6"/>
+      <c r="AN14" s="23"/>
+      <c r="AO14" s="5"/>
     </row>
     <row r="15" spans="10:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="16"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="15"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1434,7 +1430,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="13"/>
+      <c r="Y15" s="12"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -1442,7 +1438,7 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="13"/>
+      <c r="AG15" s="12"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
@@ -1450,59 +1446,59 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
-      <c r="AO15" s="6"/>
+      <c r="AO15" s="5"/>
     </row>
     <row r="16" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J16" s="5"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="36" t="s">
+      <c r="J16" s="4"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="16">
+      <c r="Q16" s="15">
         <v>7</v>
       </c>
-      <c r="R16" s="24"/>
+      <c r="R16" s="23"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="24"/>
+      <c r="T16" s="23"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="24"/>
+      <c r="V16" s="23"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="13">
+      <c r="X16" s="23"/>
+      <c r="Y16" s="12">
         <v>27</v>
       </c>
-      <c r="Z16" s="24"/>
+      <c r="Z16" s="23"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="24"/>
+      <c r="AB16" s="23"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="24"/>
+      <c r="AD16" s="23"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="13">
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="12">
         <v>47</v>
       </c>
-      <c r="AH16" s="24"/>
+      <c r="AH16" s="23"/>
       <c r="AI16" s="1"/>
-      <c r="AJ16" s="24"/>
+      <c r="AJ16" s="23"/>
       <c r="AK16" s="1"/>
-      <c r="AL16" s="24"/>
+      <c r="AL16" s="23"/>
       <c r="AM16" s="1"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="6"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="5"/>
     </row>
     <row r="17" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J17" s="5"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="16"/>
+      <c r="Q17" s="15"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1510,7 +1506,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="13"/>
+      <c r="Y17" s="12"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -1518,7 +1514,7 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="13"/>
+      <c r="AG17" s="12"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
@@ -1526,61 +1522,61 @@
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
-      <c r="AO17" s="6"/>
+      <c r="AO17" s="5"/>
     </row>
     <row r="18" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J18" s="5"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="20"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="20"/>
+      <c r="N18" s="19"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="16">
+      <c r="Q18" s="15">
         <v>8</v>
       </c>
-      <c r="R18" s="24"/>
+      <c r="R18" s="23"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="24"/>
+      <c r="T18" s="23"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="24"/>
+      <c r="V18" s="23"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="13">
+      <c r="X18" s="23"/>
+      <c r="Y18" s="12">
         <v>28</v>
       </c>
-      <c r="Z18" s="24"/>
+      <c r="Z18" s="23"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="24"/>
+      <c r="AB18" s="23"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="24"/>
+      <c r="AD18" s="23"/>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="13">
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="12">
         <v>48</v>
       </c>
-      <c r="AH18" s="24"/>
+      <c r="AH18" s="23"/>
       <c r="AI18" s="1"/>
-      <c r="AJ18" s="24"/>
+      <c r="AJ18" s="23"/>
       <c r="AK18" s="1"/>
-      <c r="AL18" s="24"/>
+      <c r="AL18" s="23"/>
       <c r="AM18" s="1"/>
-      <c r="AN18" s="24"/>
-      <c r="AO18" s="6"/>
+      <c r="AN18" s="23"/>
+      <c r="AO18" s="5"/>
     </row>
     <row r="19" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J19" s="5"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="53">
+      <c r="L19" s="51">
         <v>0</v>
       </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="53">
+      <c r="M19" s="24"/>
+      <c r="N19" s="51">
         <v>0</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="16"/>
+      <c r="Q19" s="15"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -1588,7 +1584,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="13"/>
+      <c r="Y19" s="12"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -1596,7 +1592,7 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="13"/>
+      <c r="AG19" s="12"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
@@ -1604,61 +1600,61 @@
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
-      <c r="AO19" s="6"/>
+      <c r="AO19" s="5"/>
     </row>
     <row r="20" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J20" s="5"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="20"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="20"/>
+      <c r="N20" s="19"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="16">
+      <c r="Q20" s="15">
         <v>9</v>
       </c>
-      <c r="R20" s="24"/>
+      <c r="R20" s="23"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="24"/>
+      <c r="T20" s="23"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="24"/>
+      <c r="V20" s="23"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="13">
+      <c r="X20" s="23"/>
+      <c r="Y20" s="12">
         <v>29</v>
       </c>
-      <c r="Z20" s="24"/>
+      <c r="Z20" s="23"/>
       <c r="AA20" s="1"/>
-      <c r="AB20" s="24"/>
+      <c r="AB20" s="23"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="24"/>
+      <c r="AD20" s="23"/>
       <c r="AE20" s="1"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="13">
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="12">
         <v>49</v>
       </c>
-      <c r="AH20" s="24"/>
+      <c r="AH20" s="23"/>
       <c r="AI20" s="1"/>
-      <c r="AJ20" s="24"/>
+      <c r="AJ20" s="23"/>
       <c r="AK20" s="1"/>
-      <c r="AL20" s="24"/>
+      <c r="AL20" s="23"/>
       <c r="AM20" s="1"/>
-      <c r="AN20" s="24"/>
-      <c r="AO20" s="6"/>
+      <c r="AN20" s="23"/>
+      <c r="AO20" s="5"/>
     </row>
     <row r="21" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J21" s="5"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="53">
+      <c r="L21" s="51">
         <v>1</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="53">
+      <c r="M21" s="24"/>
+      <c r="N21" s="51">
         <v>1</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="16"/>
+      <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -1666,7 +1662,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="13"/>
+      <c r="Y21" s="12"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -1674,7 +1670,7 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="13"/>
+      <c r="AG21" s="12"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
@@ -1682,61 +1678,61 @@
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
-      <c r="AO21" s="6"/>
+      <c r="AO21" s="5"/>
     </row>
     <row r="22" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J22" s="5"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="20"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="20"/>
+      <c r="N22" s="19"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="16">
+      <c r="Q22" s="15">
         <v>10</v>
       </c>
-      <c r="R22" s="24"/>
+      <c r="R22" s="23"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="24"/>
+      <c r="T22" s="23"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="24"/>
+      <c r="V22" s="23"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="13">
+      <c r="X22" s="23"/>
+      <c r="Y22" s="12">
         <v>30</v>
       </c>
-      <c r="Z22" s="24"/>
+      <c r="Z22" s="23"/>
       <c r="AA22" s="1"/>
-      <c r="AB22" s="24"/>
+      <c r="AB22" s="23"/>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="24"/>
+      <c r="AD22" s="23"/>
       <c r="AE22" s="1"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="13">
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="12">
         <v>50</v>
       </c>
-      <c r="AH22" s="24"/>
+      <c r="AH22" s="23"/>
       <c r="AI22" s="1"/>
-      <c r="AJ22" s="24"/>
+      <c r="AJ22" s="23"/>
       <c r="AK22" s="1"/>
-      <c r="AL22" s="24"/>
+      <c r="AL22" s="23"/>
       <c r="AM22" s="1"/>
-      <c r="AN22" s="24"/>
-      <c r="AO22" s="6"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="5"/>
     </row>
     <row r="23" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J23" s="5"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="53">
+      <c r="L23" s="51">
         <v>2</v>
       </c>
-      <c r="M23" s="25"/>
-      <c r="N23" s="53">
+      <c r="M23" s="24"/>
+      <c r="N23" s="51">
         <v>2</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="16"/>
+      <c r="Q23" s="15"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -1744,7 +1740,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="13"/>
+      <c r="Y23" s="12"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -1752,7 +1748,7 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="13"/>
+      <c r="AG23" s="12"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
@@ -1760,62 +1756,62 @@
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
-      <c r="AO23" s="6"/>
+      <c r="AO23" s="5"/>
     </row>
     <row r="24" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J24" s="5"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="20"/>
+      <c r="L24" s="19"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="20"/>
+      <c r="N24" s="19"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="16">
+      <c r="Q24" s="15">
         <v>11</v>
       </c>
-      <c r="R24" s="24"/>
+      <c r="R24" s="23"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="24"/>
+      <c r="T24" s="23"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="24"/>
+      <c r="V24" s="23"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="13">
+      <c r="X24" s="23"/>
+      <c r="Y24" s="12">
         <v>31</v>
       </c>
-      <c r="Z24" s="24"/>
+      <c r="Z24" s="23"/>
       <c r="AA24" s="1"/>
-      <c r="AB24" s="24"/>
+      <c r="AB24" s="23"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="24"/>
+      <c r="AD24" s="23"/>
       <c r="AE24" s="1"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="13">
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="12">
         <v>51</v>
       </c>
-      <c r="AH24" s="24"/>
+      <c r="AH24" s="23"/>
       <c r="AI24" s="1"/>
-      <c r="AJ24" s="24"/>
+      <c r="AJ24" s="23"/>
       <c r="AK24" s="1"/>
-      <c r="AL24" s="24"/>
+      <c r="AL24" s="23"/>
       <c r="AM24" s="1"/>
-      <c r="AN24" s="24"/>
-      <c r="AO24" s="6"/>
+      <c r="AN24" s="23"/>
+      <c r="AO24" s="5"/>
     </row>
     <row r="25" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="10"/>
-      <c r="J25" s="5"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="53">
+      <c r="L25" s="51">
         <v>3</v>
       </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="53">
+      <c r="M25" s="24"/>
+      <c r="N25" s="51">
         <v>3</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="16"/>
+      <c r="Q25" s="15"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -1823,7 +1819,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="13"/>
+      <c r="Y25" s="12"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -1831,7 +1827,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="13"/>
+      <c r="AG25" s="12"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
@@ -1839,61 +1835,61 @@
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
-      <c r="AO25" s="6"/>
+      <c r="AO25" s="5"/>
     </row>
     <row r="26" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J26" s="5"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="20"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="20"/>
+      <c r="N26" s="19"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="16">
+      <c r="Q26" s="15">
         <v>12</v>
       </c>
-      <c r="R26" s="24"/>
+      <c r="R26" s="23"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="24"/>
+      <c r="T26" s="23"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="24"/>
+      <c r="V26" s="23"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="13">
+      <c r="X26" s="23"/>
+      <c r="Y26" s="12">
         <v>32</v>
       </c>
-      <c r="Z26" s="24"/>
+      <c r="Z26" s="23"/>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="24"/>
+      <c r="AB26" s="23"/>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="24"/>
+      <c r="AD26" s="23"/>
       <c r="AE26" s="1"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="13">
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="12">
         <v>52</v>
       </c>
-      <c r="AH26" s="24"/>
+      <c r="AH26" s="23"/>
       <c r="AI26" s="1"/>
-      <c r="AJ26" s="24"/>
+      <c r="AJ26" s="23"/>
       <c r="AK26" s="1"/>
-      <c r="AL26" s="24"/>
+      <c r="AL26" s="23"/>
       <c r="AM26" s="1"/>
-      <c r="AN26" s="24"/>
-      <c r="AO26" s="6"/>
+      <c r="AN26" s="23"/>
+      <c r="AO26" s="5"/>
     </row>
     <row r="27" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J27" s="5"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="53">
+      <c r="L27" s="51">
         <v>4</v>
       </c>
-      <c r="M27" s="25"/>
-      <c r="N27" s="53">
+      <c r="M27" s="24"/>
+      <c r="N27" s="51">
         <v>4</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="16"/>
+      <c r="Q27" s="15"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -1901,7 +1897,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="13"/>
+      <c r="Y27" s="12"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
@@ -1909,7 +1905,7 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="13"/>
+      <c r="AG27" s="12"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
@@ -1917,61 +1913,61 @@
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
-      <c r="AO27" s="6"/>
+      <c r="AO27" s="5"/>
     </row>
     <row r="28" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J28" s="5"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="20"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="20"/>
+      <c r="N28" s="19"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="16">
+      <c r="Q28" s="15">
         <v>13</v>
       </c>
-      <c r="R28" s="24"/>
+      <c r="R28" s="23"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="24"/>
+      <c r="T28" s="23"/>
       <c r="U28" s="1"/>
-      <c r="V28" s="24"/>
+      <c r="V28" s="23"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="13">
+      <c r="X28" s="23"/>
+      <c r="Y28" s="12">
         <v>33</v>
       </c>
-      <c r="Z28" s="24"/>
+      <c r="Z28" s="23"/>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="24"/>
+      <c r="AB28" s="23"/>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="24"/>
+      <c r="AD28" s="23"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="13">
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="12">
         <v>53</v>
       </c>
-      <c r="AH28" s="24"/>
+      <c r="AH28" s="23"/>
       <c r="AI28" s="1"/>
-      <c r="AJ28" s="24"/>
+      <c r="AJ28" s="23"/>
       <c r="AK28" s="1"/>
-      <c r="AL28" s="24"/>
+      <c r="AL28" s="23"/>
       <c r="AM28" s="1"/>
-      <c r="AN28" s="24"/>
-      <c r="AO28" s="6"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="5"/>
     </row>
     <row r="29" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="5"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="53">
+      <c r="L29" s="51">
         <v>5</v>
       </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="53">
+      <c r="M29" s="24"/>
+      <c r="N29" s="51">
         <v>5</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="16"/>
+      <c r="Q29" s="15"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -1979,7 +1975,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="13"/>
+      <c r="Y29" s="12"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -1987,7 +1983,7 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="13"/>
+      <c r="AG29" s="12"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
@@ -1995,61 +1991,61 @@
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
-      <c r="AO29" s="6"/>
+      <c r="AO29" s="5"/>
     </row>
     <row r="30" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="5"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="20"/>
+      <c r="L30" s="19"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="20"/>
+      <c r="N30" s="19"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="16">
-        <v>14</v>
-      </c>
-      <c r="R30" s="24"/>
+      <c r="Q30" s="15">
+        <v>14</v>
+      </c>
+      <c r="R30" s="23"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="24"/>
+      <c r="T30" s="23"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="24"/>
+      <c r="V30" s="23"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="13">
+      <c r="X30" s="23"/>
+      <c r="Y30" s="12">
         <v>34</v>
       </c>
-      <c r="Z30" s="24"/>
+      <c r="Z30" s="23"/>
       <c r="AA30" s="1"/>
-      <c r="AB30" s="24"/>
+      <c r="AB30" s="23"/>
       <c r="AC30" s="1"/>
-      <c r="AD30" s="24"/>
+      <c r="AD30" s="23"/>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="13">
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="12">
         <v>54</v>
       </c>
-      <c r="AH30" s="24"/>
+      <c r="AH30" s="23"/>
       <c r="AI30" s="1"/>
-      <c r="AJ30" s="24"/>
+      <c r="AJ30" s="23"/>
       <c r="AK30" s="1"/>
-      <c r="AL30" s="24"/>
+      <c r="AL30" s="23"/>
       <c r="AM30" s="1"/>
-      <c r="AN30" s="24"/>
-      <c r="AO30" s="6"/>
+      <c r="AN30" s="23"/>
+      <c r="AO30" s="5"/>
     </row>
     <row r="31" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="5"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="53">
+      <c r="L31" s="51">
         <v>6</v>
       </c>
-      <c r="M31" s="25"/>
-      <c r="N31" s="53">
+      <c r="M31" s="24"/>
+      <c r="N31" s="51">
         <v>6</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="16"/>
+      <c r="Q31" s="15"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -2057,7 +2053,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="13"/>
+      <c r="Y31" s="12"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
@@ -2065,7 +2061,7 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="13"/>
+      <c r="AG31" s="12"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
@@ -2073,61 +2069,61 @@
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
-      <c r="AO31" s="6"/>
+      <c r="AO31" s="5"/>
     </row>
     <row r="32" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J32" s="5"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="20"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="20"/>
+      <c r="N32" s="19"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="16">
+      <c r="Q32" s="15">
         <v>15</v>
       </c>
-      <c r="R32" s="24"/>
+      <c r="R32" s="23"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="24"/>
+      <c r="T32" s="23"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="24"/>
+      <c r="V32" s="23"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="13">
+      <c r="X32" s="23"/>
+      <c r="Y32" s="12">
         <v>35</v>
       </c>
-      <c r="Z32" s="24"/>
+      <c r="Z32" s="23"/>
       <c r="AA32" s="1"/>
-      <c r="AB32" s="24"/>
+      <c r="AB32" s="23"/>
       <c r="AC32" s="1"/>
-      <c r="AD32" s="24"/>
+      <c r="AD32" s="23"/>
       <c r="AE32" s="1"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="13">
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="12">
         <v>55</v>
       </c>
-      <c r="AH32" s="24"/>
+      <c r="AH32" s="23"/>
       <c r="AI32" s="1"/>
-      <c r="AJ32" s="24"/>
+      <c r="AJ32" s="23"/>
       <c r="AK32" s="1"/>
-      <c r="AL32" s="24"/>
+      <c r="AL32" s="23"/>
       <c r="AM32" s="1"/>
-      <c r="AN32" s="24"/>
-      <c r="AO32" s="6"/>
+      <c r="AN32" s="23"/>
+      <c r="AO32" s="5"/>
     </row>
     <row r="33" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J33" s="5"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="53">
+      <c r="L33" s="51">
         <v>7</v>
       </c>
-      <c r="M33" s="25"/>
-      <c r="N33" s="53">
+      <c r="M33" s="24"/>
+      <c r="N33" s="51">
         <v>7</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="16"/>
+      <c r="Q33" s="15"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -2135,7 +2131,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="13"/>
+      <c r="Y33" s="12"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -2143,7 +2139,7 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
-      <c r="AG33" s="13"/>
+      <c r="AG33" s="12"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
@@ -2151,61 +2147,61 @@
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
-      <c r="AO33" s="6"/>
+      <c r="AO33" s="5"/>
     </row>
     <row r="34" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J34" s="5"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="20"/>
+      <c r="L34" s="19"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="20"/>
+      <c r="N34" s="19"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="16">
+      <c r="Q34" s="15">
         <v>16</v>
       </c>
-      <c r="R34" s="24"/>
+      <c r="R34" s="23"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="24"/>
+      <c r="T34" s="23"/>
       <c r="U34" s="1"/>
-      <c r="V34" s="24"/>
+      <c r="V34" s="23"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="13">
+      <c r="X34" s="23"/>
+      <c r="Y34" s="12">
         <v>36</v>
       </c>
-      <c r="Z34" s="24"/>
+      <c r="Z34" s="23"/>
       <c r="AA34" s="1"/>
-      <c r="AB34" s="24"/>
+      <c r="AB34" s="23"/>
       <c r="AC34" s="1"/>
-      <c r="AD34" s="24"/>
+      <c r="AD34" s="23"/>
       <c r="AE34" s="1"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="13">
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="12">
         <v>56</v>
       </c>
-      <c r="AH34" s="24"/>
+      <c r="AH34" s="23"/>
       <c r="AI34" s="1"/>
-      <c r="AJ34" s="24"/>
+      <c r="AJ34" s="23"/>
       <c r="AK34" s="1"/>
-      <c r="AL34" s="24"/>
+      <c r="AL34" s="23"/>
       <c r="AM34" s="1"/>
-      <c r="AN34" s="24"/>
-      <c r="AO34" s="6"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="5"/>
     </row>
     <row r="35" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J35" s="5"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="53">
+      <c r="L35" s="51">
         <v>8</v>
       </c>
-      <c r="M35" s="25"/>
-      <c r="N35" s="53">
+      <c r="M35" s="24"/>
+      <c r="N35" s="51">
         <v>8</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="16"/>
+      <c r="Q35" s="15"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -2213,7 +2209,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Y35" s="13"/>
+      <c r="Y35" s="12"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -2221,7 +2217,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
-      <c r="AG35" s="13"/>
+      <c r="AG35" s="12"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
@@ -2229,61 +2225,61 @@
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
-      <c r="AO35" s="6"/>
+      <c r="AO35" s="5"/>
     </row>
     <row r="36" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J36" s="5"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="20"/>
+      <c r="L36" s="19"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="20"/>
+      <c r="N36" s="19"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="16">
+      <c r="Q36" s="15">
         <v>17</v>
       </c>
-      <c r="R36" s="24"/>
+      <c r="R36" s="23"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="24"/>
+      <c r="T36" s="23"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="24"/>
+      <c r="V36" s="23"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="13">
+      <c r="X36" s="23"/>
+      <c r="Y36" s="12">
         <v>37</v>
       </c>
-      <c r="Z36" s="24"/>
+      <c r="Z36" s="23"/>
       <c r="AA36" s="1"/>
-      <c r="AB36" s="24"/>
+      <c r="AB36" s="23"/>
       <c r="AC36" s="1"/>
-      <c r="AD36" s="24"/>
+      <c r="AD36" s="23"/>
       <c r="AE36" s="1"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="13">
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="12">
         <v>57</v>
       </c>
-      <c r="AH36" s="24"/>
+      <c r="AH36" s="23"/>
       <c r="AI36" s="1"/>
-      <c r="AJ36" s="24"/>
+      <c r="AJ36" s="23"/>
       <c r="AK36" s="1"/>
-      <c r="AL36" s="24"/>
+      <c r="AL36" s="23"/>
       <c r="AM36" s="1"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="6"/>
+      <c r="AN36" s="23"/>
+      <c r="AO36" s="5"/>
     </row>
     <row r="37" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J37" s="5"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="53">
+      <c r="L37" s="51">
         <v>9</v>
       </c>
-      <c r="M37" s="25"/>
-      <c r="N37" s="53">
+      <c r="M37" s="24"/>
+      <c r="N37" s="51">
         <v>9</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="16"/>
+      <c r="Q37" s="15"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -2291,7 +2287,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-      <c r="Y37" s="13"/>
+      <c r="Y37" s="12"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -2299,7 +2295,7 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
-      <c r="AG37" s="13"/>
+      <c r="AG37" s="12"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
@@ -2307,57 +2303,57 @@
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
-      <c r="AO37" s="6"/>
+      <c r="AO37" s="5"/>
     </row>
     <row r="38" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J38" s="5"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="20"/>
+      <c r="L38" s="19"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="20"/>
+      <c r="N38" s="19"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="16">
+      <c r="Q38" s="15">
         <v>18</v>
       </c>
-      <c r="R38" s="24"/>
+      <c r="R38" s="23"/>
       <c r="S38" s="1"/>
-      <c r="T38" s="24"/>
+      <c r="T38" s="23"/>
       <c r="U38" s="1"/>
-      <c r="V38" s="24"/>
+      <c r="V38" s="23"/>
       <c r="W38" s="1"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="13">
+      <c r="X38" s="23"/>
+      <c r="Y38" s="12">
         <v>38</v>
       </c>
-      <c r="Z38" s="24"/>
+      <c r="Z38" s="23"/>
       <c r="AA38" s="1"/>
-      <c r="AB38" s="24"/>
+      <c r="AB38" s="23"/>
       <c r="AC38" s="1"/>
-      <c r="AD38" s="24"/>
+      <c r="AD38" s="23"/>
       <c r="AE38" s="1"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="13">
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="12">
         <v>58</v>
       </c>
-      <c r="AH38" s="24"/>
+      <c r="AH38" s="23"/>
       <c r="AI38" s="1"/>
-      <c r="AJ38" s="24"/>
+      <c r="AJ38" s="23"/>
       <c r="AK38" s="1"/>
-      <c r="AL38" s="24"/>
+      <c r="AL38" s="23"/>
       <c r="AM38" s="1"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="6"/>
+      <c r="AN38" s="23"/>
+      <c r="AO38" s="5"/>
     </row>
     <row r="39" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J39" s="5"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="20"/>
+      <c r="L39" s="19"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="20"/>
+      <c r="N39" s="19"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="16"/>
+      <c r="Q39" s="15"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -2365,7 +2361,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="13"/>
+      <c r="Y39" s="12"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
@@ -2373,7 +2369,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="13"/>
+      <c r="AG39" s="12"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -2381,57 +2377,57 @@
       <c r="AL39" s="1"/>
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
-      <c r="AO39" s="6"/>
+      <c r="AO39" s="5"/>
     </row>
     <row r="40" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J40" s="5"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="20"/>
+      <c r="L40" s="19"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="20"/>
+      <c r="N40" s="19"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="16">
+      <c r="Q40" s="15">
         <v>19</v>
       </c>
-      <c r="R40" s="24"/>
+      <c r="R40" s="23"/>
       <c r="S40" s="1"/>
-      <c r="T40" s="24"/>
+      <c r="T40" s="23"/>
       <c r="U40" s="1"/>
-      <c r="V40" s="24"/>
+      <c r="V40" s="23"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="13">
+      <c r="X40" s="23"/>
+      <c r="Y40" s="12">
         <v>39</v>
       </c>
-      <c r="Z40" s="24"/>
+      <c r="Z40" s="23"/>
       <c r="AA40" s="1"/>
-      <c r="AB40" s="24"/>
+      <c r="AB40" s="23"/>
       <c r="AC40" s="1"/>
-      <c r="AD40" s="24"/>
+      <c r="AD40" s="23"/>
       <c r="AE40" s="1"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="13">
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="12">
         <v>59</v>
       </c>
-      <c r="AH40" s="24"/>
+      <c r="AH40" s="23"/>
       <c r="AI40" s="1"/>
-      <c r="AJ40" s="24"/>
+      <c r="AJ40" s="23"/>
       <c r="AK40" s="1"/>
-      <c r="AL40" s="24"/>
+      <c r="AL40" s="23"/>
       <c r="AM40" s="1"/>
-      <c r="AN40" s="24"/>
-      <c r="AO40" s="6"/>
+      <c r="AN40" s="23"/>
+      <c r="AO40" s="5"/>
     </row>
     <row r="41" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J41" s="5"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="20"/>
+      <c r="L41" s="19"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="20"/>
+      <c r="N41" s="19"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="16"/>
+      <c r="Q41" s="15"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -2439,7 +2435,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="13"/>
+      <c r="Y41" s="12"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
@@ -2447,7 +2443,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="13"/>
+      <c r="AG41" s="12"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -2455,81 +2451,81 @@
       <c r="AL41" s="1"/>
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
-      <c r="AO41" s="6"/>
+      <c r="AO41" s="5"/>
     </row>
     <row r="42" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J42" s="5"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="20"/>
+      <c r="L42" s="19"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="20"/>
+      <c r="N42" s="19"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="16">
+      <c r="Q42" s="15">
         <v>20</v>
       </c>
-      <c r="R42" s="24"/>
+      <c r="R42" s="23"/>
       <c r="S42" s="1"/>
-      <c r="T42" s="24"/>
+      <c r="T42" s="23"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="24"/>
+      <c r="V42" s="23"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="13">
+      <c r="X42" s="23"/>
+      <c r="Y42" s="12">
         <v>40</v>
       </c>
-      <c r="Z42" s="24"/>
+      <c r="Z42" s="23"/>
       <c r="AA42" s="1"/>
-      <c r="AB42" s="24"/>
+      <c r="AB42" s="23"/>
       <c r="AC42" s="1"/>
-      <c r="AD42" s="24"/>
+      <c r="AD42" s="23"/>
       <c r="AE42" s="1"/>
-      <c r="AF42" s="24"/>
-      <c r="AG42" s="13">
+      <c r="AF42" s="23"/>
+      <c r="AG42" s="12">
         <v>60</v>
       </c>
-      <c r="AH42" s="24"/>
+      <c r="AH42" s="23"/>
       <c r="AI42" s="1"/>
-      <c r="AJ42" s="24"/>
+      <c r="AJ42" s="23"/>
       <c r="AK42" s="1"/>
-      <c r="AL42" s="24"/>
+      <c r="AL42" s="23"/>
       <c r="AM42" s="1"/>
-      <c r="AN42" s="24"/>
-      <c r="AO42" s="6"/>
+      <c r="AN42" s="23"/>
+      <c r="AO42" s="5"/>
     </row>
     <row r="43" spans="10:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J43" s="7"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="8"/>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
-      <c r="AL43" s="8"/>
-      <c r="AM43" s="8"/>
-      <c r="AN43" s="8"/>
-      <c r="AO43" s="9"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="8"/>
     </row>
     <row r="44" spans="10:41" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="10:41" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2538,172 +2534,172 @@
     <row r="48" spans="10:41" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="4:41" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="4:41" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J50" s="2"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="29" t="s">
+      <c r="J50" s="41"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29" t="s">
+      <c r="S50" s="47"/>
+      <c r="T50" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29" t="s">
+      <c r="U50" s="47"/>
+      <c r="V50" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29" t="s">
+      <c r="W50" s="47"/>
+      <c r="X50" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="29" t="s">
+      <c r="Y50" s="46"/>
+      <c r="Z50" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29" t="s">
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29" t="s">
+      <c r="AC50" s="47"/>
+      <c r="AD50" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="29" t="s">
+      <c r="AE50" s="47"/>
+      <c r="AF50" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AG50" s="12"/>
-      <c r="AH50" s="29" t="s">
+      <c r="AG50" s="46"/>
+      <c r="AH50" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="AI50" s="29"/>
-      <c r="AJ50" s="29" t="s">
+      <c r="AI50" s="47"/>
+      <c r="AJ50" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AK50" s="29"/>
-      <c r="AL50" s="29" t="s">
+      <c r="AK50" s="47"/>
+      <c r="AL50" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AM50" s="29"/>
-      <c r="AN50" s="29" t="s">
+      <c r="AM50" s="47"/>
+      <c r="AN50" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AO50" s="4"/>
+      <c r="AO50" s="48"/>
     </row>
     <row r="51" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J51" s="34" t="s">
+      <c r="J51" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="3"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="1"/>
       <c r="N51" s="19"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="4"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="5"/>
       <c r="Q51" s="15"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
       <c r="Y51" s="12"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-      <c r="AF51" s="3"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="12"/>
-      <c r="AH51" s="3"/>
-      <c r="AI51" s="3"/>
-      <c r="AJ51" s="3"/>
-      <c r="AK51" s="3"/>
-      <c r="AL51" s="3"/>
-      <c r="AM51" s="3"/>
-      <c r="AN51" s="3"/>
-      <c r="AO51" s="4"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="5"/>
     </row>
     <row r="52" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J52" s="34"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="20"/>
+      <c r="N52" s="19"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="16">
+      <c r="P52" s="5"/>
+      <c r="Q52" s="15">
         <v>1</v>
       </c>
-      <c r="R52" s="28" t="s">
+      <c r="R52" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S52" s="1"/>
-      <c r="T52" s="28" t="s">
+      <c r="T52" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U52" s="1"/>
-      <c r="V52" s="28" t="s">
+      <c r="V52" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W52" s="1"/>
-      <c r="X52" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y52" s="13">
+      <c r="X52" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y52" s="12">
         <v>21</v>
       </c>
-      <c r="Z52" s="28" t="s">
+      <c r="Z52" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA52" s="1"/>
-      <c r="AB52" s="28" t="s">
+      <c r="AB52" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC52" s="1"/>
-      <c r="AD52" s="28" t="s">
+      <c r="AD52" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE52" s="1"/>
-      <c r="AF52" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG52" s="13">
+      <c r="AF52" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG52" s="12">
         <v>41</v>
       </c>
-      <c r="AH52" s="28" t="s">
+      <c r="AH52" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI52" s="1"/>
-      <c r="AJ52" s="28" t="s">
+      <c r="AJ52" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK52" s="1"/>
-      <c r="AL52" s="28" t="s">
+      <c r="AL52" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM52" s="1"/>
-      <c r="AN52" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO52" s="6"/>
+      <c r="AN52" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO52" s="5"/>
     </row>
     <row r="53" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J53" s="34"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="16"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="15"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -2711,7 +2707,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
-      <c r="Y53" s="13"/>
+      <c r="Y53" s="12"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
@@ -2719,7 +2715,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
-      <c r="AG53" s="13"/>
+      <c r="AG53" s="12"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
@@ -2727,83 +2723,83 @@
       <c r="AL53" s="1"/>
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
-      <c r="AO53" s="6"/>
+      <c r="AO53" s="5"/>
     </row>
     <row r="54" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J54" s="34" t="s">
+      <c r="J54" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="16">
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="15">
         <v>2</v>
       </c>
-      <c r="R54" s="28" t="s">
+      <c r="R54" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S54" s="1"/>
-      <c r="T54" s="28" t="s">
+      <c r="T54" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U54" s="1"/>
-      <c r="V54" s="28" t="s">
+      <c r="V54" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W54" s="1"/>
-      <c r="X54" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y54" s="13">
+      <c r="X54" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y54" s="12">
         <v>22</v>
       </c>
-      <c r="Z54" s="28" t="s">
+      <c r="Z54" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA54" s="1"/>
-      <c r="AB54" s="28" t="s">
+      <c r="AB54" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC54" s="1"/>
-      <c r="AD54" s="28" t="s">
+      <c r="AD54" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE54" s="1"/>
-      <c r="AF54" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG54" s="13">
+      <c r="AF54" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG54" s="12">
         <v>42</v>
       </c>
-      <c r="AH54" s="28" t="s">
+      <c r="AH54" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI54" s="1"/>
-      <c r="AJ54" s="28" t="s">
+      <c r="AJ54" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK54" s="1"/>
-      <c r="AL54" s="28" t="s">
+      <c r="AL54" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM54" s="1"/>
-      <c r="AN54" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO54" s="6"/>
+      <c r="AN54" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO54" s="5"/>
     </row>
     <row r="55" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J55" s="34"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="16"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="15"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -2811,7 +2807,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
-      <c r="Y55" s="13"/>
+      <c r="Y55" s="12"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
@@ -2819,7 +2815,7 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
-      <c r="AG55" s="13"/>
+      <c r="AG55" s="12"/>
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
@@ -2827,83 +2823,83 @@
       <c r="AL55" s="1"/>
       <c r="AM55" s="1"/>
       <c r="AN55" s="1"/>
-      <c r="AO55" s="6"/>
+      <c r="AO55" s="5"/>
     </row>
     <row r="56" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J56" s="34"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="16">
+      <c r="J56" s="32"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="15">
         <v>3</v>
       </c>
-      <c r="R56" s="28" t="s">
+      <c r="R56" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S56" s="1"/>
-      <c r="T56" s="28" t="s">
+      <c r="T56" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U56" s="1"/>
-      <c r="V56" s="28" t="s">
+      <c r="V56" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W56" s="1"/>
-      <c r="X56" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y56" s="13">
+      <c r="X56" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y56" s="12">
         <v>23</v>
       </c>
-      <c r="Z56" s="28" t="s">
+      <c r="Z56" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA56" s="1"/>
-      <c r="AB56" s="28" t="s">
+      <c r="AB56" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC56" s="1"/>
-      <c r="AD56" s="28" t="s">
+      <c r="AD56" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE56" s="1"/>
-      <c r="AF56" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG56" s="13">
+      <c r="AF56" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG56" s="12">
         <v>43</v>
       </c>
-      <c r="AH56" s="28" t="s">
+      <c r="AH56" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI56" s="1"/>
-      <c r="AJ56" s="28" t="s">
+      <c r="AJ56" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK56" s="1"/>
-      <c r="AL56" s="28" t="s">
+      <c r="AL56" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM56" s="1"/>
-      <c r="AN56" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO56" s="6"/>
+      <c r="AN56" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO56" s="5"/>
     </row>
     <row r="57" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J57" s="55" t="s">
+      <c r="J57" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="56"/>
-      <c r="L57" s="20"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="19"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="20"/>
+      <c r="N57" s="19"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="16"/>
+      <c r="Q57" s="15"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -2911,7 +2907,7 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
-      <c r="Y57" s="13"/>
+      <c r="Y57" s="12"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
@@ -2919,7 +2915,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
-      <c r="AG57" s="13"/>
+      <c r="AG57" s="12"/>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
@@ -2927,83 +2923,83 @@
       <c r="AL57" s="1"/>
       <c r="AM57" s="1"/>
       <c r="AN57" s="1"/>
-      <c r="AO57" s="6"/>
+      <c r="AO57" s="5"/>
     </row>
     <row r="58" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J58" s="55"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="33" t="s">
+      <c r="J58" s="53"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="M58" s="33"/>
-      <c r="N58" s="20"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="19"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="16">
+      <c r="Q58" s="15">
         <v>4</v>
       </c>
-      <c r="R58" s="28" t="s">
+      <c r="R58" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S58" s="1"/>
-      <c r="T58" s="28" t="s">
+      <c r="T58" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U58" s="1"/>
-      <c r="V58" s="28" t="s">
+      <c r="V58" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W58" s="1"/>
-      <c r="X58" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y58" s="13">
+      <c r="X58" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y58" s="12">
         <v>24</v>
       </c>
-      <c r="Z58" s="28" t="s">
+      <c r="Z58" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA58" s="1"/>
-      <c r="AB58" s="28" t="s">
+      <c r="AB58" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC58" s="1"/>
-      <c r="AD58" s="28" t="s">
+      <c r="AD58" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE58" s="1"/>
-      <c r="AF58" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG58" s="13">
+      <c r="AF58" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG58" s="12">
         <v>44</v>
       </c>
-      <c r="AH58" s="28" t="s">
+      <c r="AH58" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI58" s="1"/>
-      <c r="AJ58" s="28" t="s">
+      <c r="AJ58" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK58" s="1"/>
-      <c r="AL58" s="28" t="s">
+      <c r="AL58" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM58" s="1"/>
-      <c r="AN58" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO58" s="6"/>
+      <c r="AN58" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO58" s="5"/>
     </row>
     <row r="59" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J59" s="55"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="23"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="22"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="16"/>
+      <c r="Q59" s="15"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
@@ -3011,7 +3007,7 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="13"/>
+      <c r="Y59" s="12"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
@@ -3019,7 +3015,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
-      <c r="AG59" s="13"/>
+      <c r="AG59" s="12"/>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
@@ -3027,89 +3023,89 @@
       <c r="AL59" s="1"/>
       <c r="AM59" s="1"/>
       <c r="AN59" s="1"/>
-      <c r="AO59" s="6"/>
+      <c r="AO59" s="5"/>
     </row>
     <row r="60" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J60" s="55"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="33" t="s">
+      <c r="J60" s="53"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M60" s="33"/>
-      <c r="N60" s="20"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="19"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="Q60" s="16">
+      <c r="Q60" s="15">
         <v>5</v>
       </c>
-      <c r="R60" s="28" t="s">
+      <c r="R60" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S60" s="1"/>
-      <c r="T60" s="28" t="s">
+      <c r="T60" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U60" s="1"/>
-      <c r="V60" s="28" t="s">
+      <c r="V60" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W60" s="1"/>
-      <c r="X60" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y60" s="13">
+      <c r="X60" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y60" s="12">
         <v>25</v>
       </c>
-      <c r="Z60" s="28" t="s">
+      <c r="Z60" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA60" s="1"/>
-      <c r="AB60" s="28" t="s">
+      <c r="AB60" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC60" s="1"/>
-      <c r="AD60" s="28" t="s">
+      <c r="AD60" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE60" s="1"/>
-      <c r="AF60" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG60" s="13">
+      <c r="AF60" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG60" s="12">
         <v>45</v>
       </c>
-      <c r="AH60" s="28" t="s">
+      <c r="AH60" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI60" s="1"/>
-      <c r="AJ60" s="28" t="s">
+      <c r="AJ60" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK60" s="1"/>
-      <c r="AL60" s="28" t="s">
+      <c r="AL60" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM60" s="1"/>
-      <c r="AN60" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO60" s="6"/>
+      <c r="AN60" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO60" s="5"/>
     </row>
     <row r="61" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J61" s="55"/>
-      <c r="K61" s="56"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="21" t="s">
+      <c r="J61" s="53"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="O61" s="21" t="s">
+      <c r="O61" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="P61" s="51" t="s">
+      <c r="P61" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Q61" s="16"/>
+      <c r="Q61" s="15"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
@@ -3117,7 +3113,7 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
-      <c r="Y61" s="13"/>
+      <c r="Y61" s="12"/>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
@@ -3125,7 +3121,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
-      <c r="AG61" s="13"/>
+      <c r="AG61" s="12"/>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
@@ -3133,81 +3129,81 @@
       <c r="AL61" s="1"/>
       <c r="AM61" s="1"/>
       <c r="AN61" s="1"/>
-      <c r="AO61" s="6"/>
+      <c r="AO61" s="5"/>
     </row>
     <row r="62" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J62" s="55"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="20"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="19"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="20"/>
+      <c r="N62" s="19"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="Q62" s="16">
+      <c r="Q62" s="15">
         <v>6</v>
       </c>
-      <c r="R62" s="28" t="s">
+      <c r="R62" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S62" s="1"/>
-      <c r="T62" s="28" t="s">
+      <c r="T62" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U62" s="1"/>
-      <c r="V62" s="28" t="s">
+      <c r="V62" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W62" s="1"/>
-      <c r="X62" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y62" s="13">
+      <c r="X62" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y62" s="12">
         <v>26</v>
       </c>
-      <c r="Z62" s="28" t="s">
+      <c r="Z62" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA62" s="1"/>
-      <c r="AB62" s="28" t="s">
+      <c r="AB62" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC62" s="1"/>
-      <c r="AD62" s="28" t="s">
+      <c r="AD62" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE62" s="1"/>
-      <c r="AF62" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG62" s="13">
+      <c r="AF62" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG62" s="12">
         <v>46</v>
       </c>
-      <c r="AH62" s="28" t="s">
+      <c r="AH62" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI62" s="1"/>
-      <c r="AJ62" s="28" t="s">
+      <c r="AJ62" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK62" s="1"/>
-      <c r="AL62" s="28" t="s">
+      <c r="AL62" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM62" s="1"/>
-      <c r="AN62" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO62" s="6"/>
+      <c r="AN62" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO62" s="5"/>
     </row>
     <row r="63" spans="4:41" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J63" s="57"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="16"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="15"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
@@ -3215,7 +3211,7 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
-      <c r="Y63" s="13"/>
+      <c r="Y63" s="12"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
@@ -3223,7 +3219,7 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
-      <c r="AG63" s="13"/>
+      <c r="AG63" s="12"/>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
@@ -3231,84 +3227,84 @@
       <c r="AL63" s="1"/>
       <c r="AM63" s="1"/>
       <c r="AN63" s="1"/>
-      <c r="AO63" s="6"/>
+      <c r="AO63" s="5"/>
     </row>
     <row r="64" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D64" s="30"/>
-      <c r="J64" s="5"/>
+      <c r="D64" s="28"/>
+      <c r="J64" s="4"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="36" t="s">
+      <c r="L64" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
-      <c r="Q64" s="16">
+      <c r="Q64" s="15">
         <v>7</v>
       </c>
-      <c r="R64" s="28" t="s">
+      <c r="R64" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S64" s="1"/>
-      <c r="T64" s="28" t="s">
+      <c r="T64" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U64" s="1"/>
-      <c r="V64" s="28" t="s">
+      <c r="V64" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W64" s="1"/>
-      <c r="X64" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y64" s="13">
+      <c r="X64" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y64" s="12">
         <v>27</v>
       </c>
-      <c r="Z64" s="28" t="s">
+      <c r="Z64" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA64" s="1"/>
-      <c r="AB64" s="28" t="s">
+      <c r="AB64" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC64" s="1"/>
-      <c r="AD64" s="28" t="s">
+      <c r="AD64" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE64" s="1"/>
-      <c r="AF64" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG64" s="13">
+      <c r="AF64" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG64" s="12">
         <v>47</v>
       </c>
-      <c r="AH64" s="28" t="s">
+      <c r="AH64" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI64" s="1"/>
-      <c r="AJ64" s="28" t="s">
+      <c r="AJ64" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK64" s="1"/>
-      <c r="AL64" s="28" t="s">
+      <c r="AL64" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM64" s="1"/>
-      <c r="AN64" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO64" s="6"/>
+      <c r="AN64" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO64" s="5"/>
     </row>
     <row r="65" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J65" s="5"/>
+      <c r="J65" s="4"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-      <c r="Q65" s="16"/>
+      <c r="Q65" s="15"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -3316,7 +3312,7 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
-      <c r="Y65" s="13"/>
+      <c r="Y65" s="12"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
@@ -3324,7 +3320,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
-      <c r="AG65" s="13"/>
+      <c r="AG65" s="12"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
@@ -3332,85 +3328,85 @@
       <c r="AL65" s="1"/>
       <c r="AM65" s="1"/>
       <c r="AN65" s="1"/>
-      <c r="AO65" s="6"/>
+      <c r="AO65" s="5"/>
     </row>
     <row r="66" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J66" s="5"/>
+      <c r="J66" s="4"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="20"/>
+      <c r="L66" s="19"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="20"/>
+      <c r="N66" s="19"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-      <c r="Q66" s="16">
+      <c r="Q66" s="15">
         <v>8</v>
       </c>
-      <c r="R66" s="28" t="s">
+      <c r="R66" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S66" s="1"/>
-      <c r="T66" s="28" t="s">
+      <c r="T66" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U66" s="1"/>
-      <c r="V66" s="28" t="s">
+      <c r="V66" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W66" s="1"/>
-      <c r="X66" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y66" s="13">
+      <c r="X66" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y66" s="12">
         <v>28</v>
       </c>
-      <c r="Z66" s="28" t="s">
+      <c r="Z66" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA66" s="1"/>
-      <c r="AB66" s="28" t="s">
+      <c r="AB66" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC66" s="1"/>
-      <c r="AD66" s="28" t="s">
+      <c r="AD66" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE66" s="1"/>
-      <c r="AF66" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG66" s="13">
+      <c r="AF66" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG66" s="12">
         <v>48</v>
       </c>
-      <c r="AH66" s="28" t="s">
+      <c r="AH66" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI66" s="1"/>
-      <c r="AJ66" s="28" t="s">
+      <c r="AJ66" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK66" s="1"/>
-      <c r="AL66" s="28" t="s">
+      <c r="AL66" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM66" s="1"/>
-      <c r="AN66" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO66" s="6"/>
+      <c r="AN66" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO66" s="5"/>
     </row>
     <row r="67" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J67" s="5"/>
+      <c r="J67" s="4"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="53">
+      <c r="L67" s="51">
         <v>0</v>
       </c>
-      <c r="M67" s="25"/>
-      <c r="N67" s="53">
+      <c r="M67" s="24"/>
+      <c r="N67" s="51">
         <v>0</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
-      <c r="Q67" s="16"/>
+      <c r="Q67" s="15"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
@@ -3418,7 +3414,7 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
-      <c r="Y67" s="13"/>
+      <c r="Y67" s="12"/>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
@@ -3426,7 +3422,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
-      <c r="AG67" s="13"/>
+      <c r="AG67" s="12"/>
       <c r="AH67" s="1"/>
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
@@ -3434,85 +3430,85 @@
       <c r="AL67" s="1"/>
       <c r="AM67" s="1"/>
       <c r="AN67" s="1"/>
-      <c r="AO67" s="6"/>
+      <c r="AO67" s="5"/>
     </row>
     <row r="68" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J68" s="5"/>
+      <c r="J68" s="4"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="20"/>
+      <c r="L68" s="19"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="20"/>
+      <c r="N68" s="19"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
-      <c r="Q68" s="16">
+      <c r="Q68" s="15">
         <v>9</v>
       </c>
-      <c r="R68" s="28" t="s">
+      <c r="R68" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S68" s="1"/>
-      <c r="T68" s="28" t="s">
+      <c r="T68" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U68" s="1"/>
-      <c r="V68" s="28" t="s">
+      <c r="V68" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W68" s="1"/>
-      <c r="X68" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y68" s="13">
+      <c r="X68" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y68" s="12">
         <v>29</v>
       </c>
-      <c r="Z68" s="28" t="s">
+      <c r="Z68" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA68" s="1"/>
-      <c r="AB68" s="28" t="s">
+      <c r="AB68" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC68" s="1"/>
-      <c r="AD68" s="28" t="s">
+      <c r="AD68" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE68" s="1"/>
-      <c r="AF68" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG68" s="13">
+      <c r="AF68" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG68" s="12">
         <v>49</v>
       </c>
-      <c r="AH68" s="28" t="s">
+      <c r="AH68" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI68" s="1"/>
-      <c r="AJ68" s="28" t="s">
+      <c r="AJ68" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK68" s="1"/>
-      <c r="AL68" s="28" t="s">
+      <c r="AL68" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM68" s="1"/>
-      <c r="AN68" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO68" s="6"/>
+      <c r="AN68" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO68" s="5"/>
     </row>
     <row r="69" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J69" s="5"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="53">
+      <c r="J69" s="4"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="51">
         <v>1</v>
       </c>
-      <c r="M69" s="25"/>
-      <c r="N69" s="53">
+      <c r="M69" s="24"/>
+      <c r="N69" s="51">
         <v>1</v>
       </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
-      <c r="Q69" s="16"/>
+      <c r="Q69" s="15"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
@@ -3520,7 +3516,7 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
-      <c r="Y69" s="13"/>
+      <c r="Y69" s="12"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
@@ -3528,7 +3524,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
-      <c r="AG69" s="13"/>
+      <c r="AG69" s="12"/>
       <c r="AH69" s="1"/>
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
@@ -3536,85 +3532,85 @@
       <c r="AL69" s="1"/>
       <c r="AM69" s="1"/>
       <c r="AN69" s="1"/>
-      <c r="AO69" s="6"/>
+      <c r="AO69" s="5"/>
     </row>
     <row r="70" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J70" s="5"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="20"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="19"/>
       <c r="M70" s="1"/>
-      <c r="N70" s="20"/>
+      <c r="N70" s="19"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
-      <c r="Q70" s="16">
+      <c r="Q70" s="15">
         <v>10</v>
       </c>
-      <c r="R70" s="28" t="s">
+      <c r="R70" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S70" s="1"/>
-      <c r="T70" s="28" t="s">
+      <c r="T70" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U70" s="1"/>
-      <c r="V70" s="28" t="s">
+      <c r="V70" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W70" s="1"/>
-      <c r="X70" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y70" s="13">
+      <c r="X70" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y70" s="12">
         <v>30</v>
       </c>
-      <c r="Z70" s="28" t="s">
+      <c r="Z70" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA70" s="1"/>
-      <c r="AB70" s="28" t="s">
+      <c r="AB70" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC70" s="1"/>
-      <c r="AD70" s="28" t="s">
+      <c r="AD70" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE70" s="1"/>
-      <c r="AF70" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG70" s="13">
+      <c r="AF70" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG70" s="12">
         <v>50</v>
       </c>
-      <c r="AH70" s="28" t="s">
+      <c r="AH70" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI70" s="1"/>
-      <c r="AJ70" s="28" t="s">
+      <c r="AJ70" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK70" s="1"/>
-      <c r="AL70" s="28" t="s">
+      <c r="AL70" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM70" s="1"/>
-      <c r="AN70" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO70" s="6"/>
+      <c r="AN70" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO70" s="5"/>
     </row>
     <row r="71" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J71" s="5"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="53">
+      <c r="J71" s="4"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="51">
         <v>2</v>
       </c>
-      <c r="M71" s="25"/>
-      <c r="N71" s="53">
+      <c r="M71" s="24"/>
+      <c r="N71" s="51">
         <v>2</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
-      <c r="Q71" s="16"/>
+      <c r="Q71" s="15"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
@@ -3622,7 +3618,7 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
-      <c r="Y71" s="13"/>
+      <c r="Y71" s="12"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
@@ -3630,7 +3626,7 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="1"/>
-      <c r="AG71" s="13"/>
+      <c r="AG71" s="12"/>
       <c r="AH71" s="1"/>
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
@@ -3638,86 +3634,86 @@
       <c r="AL71" s="1"/>
       <c r="AM71" s="1"/>
       <c r="AN71" s="1"/>
-      <c r="AO71" s="6"/>
+      <c r="AO71" s="5"/>
     </row>
     <row r="72" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J72" s="5"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="20"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="19"/>
       <c r="M72" s="1"/>
-      <c r="N72" s="20"/>
+      <c r="N72" s="19"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
-      <c r="Q72" s="16">
+      <c r="Q72" s="15">
         <v>11</v>
       </c>
-      <c r="R72" s="28" t="s">
+      <c r="R72" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S72" s="1"/>
-      <c r="T72" s="28" t="s">
+      <c r="T72" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U72" s="1"/>
-      <c r="V72" s="28" t="s">
+      <c r="V72" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W72" s="1"/>
-      <c r="X72" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y72" s="13">
+      <c r="X72" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y72" s="12">
         <v>31</v>
       </c>
-      <c r="Z72" s="28" t="s">
+      <c r="Z72" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA72" s="1"/>
-      <c r="AB72" s="28" t="s">
+      <c r="AB72" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC72" s="1"/>
-      <c r="AD72" s="28" t="s">
+      <c r="AD72" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE72" s="1"/>
-      <c r="AF72" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG72" s="13">
+      <c r="AF72" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG72" s="12">
         <v>51</v>
       </c>
-      <c r="AH72" s="28" t="s">
+      <c r="AH72" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI72" s="1"/>
-      <c r="AJ72" s="28" t="s">
+      <c r="AJ72" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK72" s="1"/>
-      <c r="AL72" s="28" t="s">
+      <c r="AL72" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM72" s="1"/>
-      <c r="AN72" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO72" s="6"/>
+      <c r="AN72" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO72" s="5"/>
     </row>
     <row r="73" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I73" s="10"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="53">
+      <c r="I73" s="9"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="51">
         <v>3</v>
       </c>
-      <c r="M73" s="25"/>
-      <c r="N73" s="53">
+      <c r="M73" s="24"/>
+      <c r="N73" s="51">
         <v>3</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
-      <c r="Q73" s="16"/>
+      <c r="Q73" s="15"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
@@ -3725,7 +3721,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
-      <c r="Y73" s="13"/>
+      <c r="Y73" s="12"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
@@ -3733,7 +3729,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
-      <c r="AG73" s="13"/>
+      <c r="AG73" s="12"/>
       <c r="AH73" s="1"/>
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
@@ -3741,85 +3737,85 @@
       <c r="AL73" s="1"/>
       <c r="AM73" s="1"/>
       <c r="AN73" s="1"/>
-      <c r="AO73" s="6"/>
+      <c r="AO73" s="5"/>
     </row>
     <row r="74" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J74" s="5"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="20"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="19"/>
       <c r="M74" s="1"/>
-      <c r="N74" s="20"/>
+      <c r="N74" s="19"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
-      <c r="Q74" s="16">
+      <c r="Q74" s="15">
         <v>12</v>
       </c>
-      <c r="R74" s="28" t="s">
+      <c r="R74" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S74" s="1"/>
-      <c r="T74" s="28" t="s">
+      <c r="T74" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U74" s="1"/>
-      <c r="V74" s="28" t="s">
+      <c r="V74" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W74" s="1"/>
-      <c r="X74" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y74" s="13">
+      <c r="X74" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y74" s="12">
         <v>32</v>
       </c>
-      <c r="Z74" s="28" t="s">
+      <c r="Z74" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA74" s="1"/>
-      <c r="AB74" s="28" t="s">
+      <c r="AB74" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC74" s="1"/>
-      <c r="AD74" s="28" t="s">
+      <c r="AD74" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE74" s="1"/>
-      <c r="AF74" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG74" s="13">
+      <c r="AF74" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG74" s="12">
         <v>52</v>
       </c>
-      <c r="AH74" s="28" t="s">
+      <c r="AH74" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI74" s="1"/>
-      <c r="AJ74" s="28" t="s">
+      <c r="AJ74" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK74" s="1"/>
-      <c r="AL74" s="28" t="s">
+      <c r="AL74" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM74" s="1"/>
-      <c r="AN74" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO74" s="6"/>
+      <c r="AN74" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO74" s="5"/>
     </row>
     <row r="75" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J75" s="5"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="53">
+      <c r="J75" s="4"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="51">
         <v>4</v>
       </c>
-      <c r="M75" s="25"/>
-      <c r="N75" s="53">
+      <c r="M75" s="24"/>
+      <c r="N75" s="51">
         <v>4</v>
       </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
-      <c r="Q75" s="16"/>
+      <c r="Q75" s="15"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
@@ -3827,7 +3823,7 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
-      <c r="Y75" s="13"/>
+      <c r="Y75" s="12"/>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
@@ -3835,7 +3831,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
       <c r="AF75" s="1"/>
-      <c r="AG75" s="13"/>
+      <c r="AG75" s="12"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
@@ -3843,85 +3839,85 @@
       <c r="AL75" s="1"/>
       <c r="AM75" s="1"/>
       <c r="AN75" s="1"/>
-      <c r="AO75" s="6"/>
+      <c r="AO75" s="5"/>
     </row>
     <row r="76" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J76" s="5"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="20"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="19"/>
       <c r="M76" s="1"/>
-      <c r="N76" s="20"/>
+      <c r="N76" s="19"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
-      <c r="Q76" s="16">
+      <c r="Q76" s="15">
         <v>13</v>
       </c>
-      <c r="R76" s="28" t="s">
+      <c r="R76" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S76" s="1"/>
-      <c r="T76" s="28" t="s">
+      <c r="T76" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U76" s="1"/>
-      <c r="V76" s="28" t="s">
+      <c r="V76" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W76" s="1"/>
-      <c r="X76" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y76" s="13">
+      <c r="X76" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y76" s="12">
         <v>33</v>
       </c>
-      <c r="Z76" s="28" t="s">
+      <c r="Z76" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA76" s="1"/>
-      <c r="AB76" s="28" t="s">
+      <c r="AB76" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC76" s="1"/>
-      <c r="AD76" s="28" t="s">
+      <c r="AD76" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE76" s="1"/>
-      <c r="AF76" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG76" s="13">
+      <c r="AF76" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG76" s="12">
         <v>53</v>
       </c>
-      <c r="AH76" s="28" t="s">
+      <c r="AH76" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI76" s="1"/>
-      <c r="AJ76" s="28" t="s">
+      <c r="AJ76" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK76" s="1"/>
-      <c r="AL76" s="28" t="s">
+      <c r="AL76" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM76" s="1"/>
-      <c r="AN76" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO76" s="6"/>
+      <c r="AN76" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO76" s="5"/>
     </row>
     <row r="77" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J77" s="5"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="53">
+      <c r="J77" s="4"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="51">
         <v>5</v>
       </c>
-      <c r="M77" s="25"/>
-      <c r="N77" s="53">
+      <c r="M77" s="24"/>
+      <c r="N77" s="51">
         <v>5</v>
       </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
-      <c r="Q77" s="16"/>
+      <c r="Q77" s="15"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
@@ -3929,7 +3925,7 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
-      <c r="Y77" s="13"/>
+      <c r="Y77" s="12"/>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
@@ -3937,7 +3933,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
-      <c r="AG77" s="13"/>
+      <c r="AG77" s="12"/>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
@@ -3945,85 +3941,85 @@
       <c r="AL77" s="1"/>
       <c r="AM77" s="1"/>
       <c r="AN77" s="1"/>
-      <c r="AO77" s="6"/>
+      <c r="AO77" s="5"/>
     </row>
     <row r="78" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J78" s="5"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="20"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="19"/>
       <c r="M78" s="1"/>
-      <c r="N78" s="20"/>
+      <c r="N78" s="19"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
-      <c r="Q78" s="16">
-        <v>14</v>
-      </c>
-      <c r="R78" s="28" t="s">
+      <c r="Q78" s="15">
+        <v>14</v>
+      </c>
+      <c r="R78" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S78" s="1"/>
-      <c r="T78" s="28" t="s">
+      <c r="T78" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U78" s="1"/>
-      <c r="V78" s="28" t="s">
+      <c r="V78" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W78" s="1"/>
-      <c r="X78" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y78" s="13">
+      <c r="X78" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y78" s="12">
         <v>34</v>
       </c>
-      <c r="Z78" s="28" t="s">
+      <c r="Z78" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA78" s="1"/>
-      <c r="AB78" s="28" t="s">
+      <c r="AB78" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="28" t="s">
+      <c r="AD78" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE78" s="1"/>
-      <c r="AF78" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG78" s="13">
+      <c r="AF78" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG78" s="12">
         <v>54</v>
       </c>
-      <c r="AH78" s="28" t="s">
+      <c r="AH78" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI78" s="1"/>
-      <c r="AJ78" s="28" t="s">
+      <c r="AJ78" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK78" s="1"/>
-      <c r="AL78" s="28" t="s">
+      <c r="AL78" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM78" s="1"/>
-      <c r="AN78" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO78" s="6"/>
+      <c r="AN78" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO78" s="5"/>
     </row>
     <row r="79" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J79" s="5"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="53">
+      <c r="J79" s="4"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="51">
         <v>6</v>
       </c>
-      <c r="M79" s="25"/>
-      <c r="N79" s="53">
+      <c r="M79" s="24"/>
+      <c r="N79" s="51">
         <v>6</v>
       </c>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
-      <c r="Q79" s="16"/>
+      <c r="Q79" s="15"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
@@ -4031,7 +4027,7 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
-      <c r="Y79" s="13"/>
+      <c r="Y79" s="12"/>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
@@ -4039,7 +4035,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
-      <c r="AG79" s="13"/>
+      <c r="AG79" s="12"/>
       <c r="AH79" s="1"/>
       <c r="AI79" s="1"/>
       <c r="AJ79" s="1"/>
@@ -4047,85 +4043,85 @@
       <c r="AL79" s="1"/>
       <c r="AM79" s="1"/>
       <c r="AN79" s="1"/>
-      <c r="AO79" s="6"/>
+      <c r="AO79" s="5"/>
     </row>
     <row r="80" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J80" s="5"/>
-      <c r="K80" s="26"/>
-      <c r="L80" s="20"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="19"/>
       <c r="M80" s="1"/>
-      <c r="N80" s="20"/>
+      <c r="N80" s="19"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
-      <c r="Q80" s="16">
+      <c r="Q80" s="15">
         <v>15</v>
       </c>
-      <c r="R80" s="28" t="s">
+      <c r="R80" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S80" s="1"/>
-      <c r="T80" s="28" t="s">
+      <c r="T80" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U80" s="1"/>
-      <c r="V80" s="28" t="s">
+      <c r="V80" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W80" s="1"/>
-      <c r="X80" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y80" s="13">
+      <c r="X80" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y80" s="12">
         <v>35</v>
       </c>
-      <c r="Z80" s="28" t="s">
+      <c r="Z80" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA80" s="1"/>
-      <c r="AB80" s="28" t="s">
+      <c r="AB80" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC80" s="1"/>
-      <c r="AD80" s="28" t="s">
+      <c r="AD80" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE80" s="1"/>
-      <c r="AF80" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG80" s="13">
+      <c r="AF80" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG80" s="12">
         <v>55</v>
       </c>
-      <c r="AH80" s="28" t="s">
+      <c r="AH80" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI80" s="1"/>
-      <c r="AJ80" s="28" t="s">
+      <c r="AJ80" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK80" s="1"/>
-      <c r="AL80" s="28" t="s">
+      <c r="AL80" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM80" s="1"/>
-      <c r="AN80" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO80" s="6"/>
+      <c r="AN80" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO80" s="5"/>
     </row>
     <row r="81" spans="10:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J81" s="5"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="53">
+      <c r="J81" s="4"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="51">
         <v>7</v>
       </c>
-      <c r="M81" s="25"/>
-      <c r="N81" s="53">
+      <c r="M81" s="24"/>
+      <c r="N81" s="51">
         <v>7</v>
       </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
-      <c r="Q81" s="16"/>
+      <c r="Q81" s="15"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
@@ -4133,7 +4129,7 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
-      <c r="Y81" s="13"/>
+      <c r="Y81" s="12"/>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
@@ -4141,7 +4137,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
       <c r="AF81" s="1"/>
-      <c r="AG81" s="13"/>
+      <c r="AG81" s="12"/>
       <c r="AH81" s="1"/>
       <c r="AI81" s="1"/>
       <c r="AJ81" s="1"/>
@@ -4149,85 +4145,85 @@
       <c r="AL81" s="1"/>
       <c r="AM81" s="1"/>
       <c r="AN81" s="1"/>
-      <c r="AO81" s="6"/>
+      <c r="AO81" s="5"/>
     </row>
     <row r="82" spans="10:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J82" s="5"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="20"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="19"/>
       <c r="M82" s="1"/>
-      <c r="N82" s="20"/>
+      <c r="N82" s="19"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
-      <c r="Q82" s="16">
+      <c r="Q82" s="15">
         <v>16</v>
       </c>
-      <c r="R82" s="28" t="s">
+      <c r="R82" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S82" s="1"/>
-      <c r="T82" s="28" t="s">
+      <c r="T82" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U82" s="1"/>
-      <c r="V82" s="28" t="s">
+      <c r="V82" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W82" s="1"/>
-      <c r="X82" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y82" s="13">
+      <c r="X82" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y82" s="12">
         <v>36</v>
       </c>
-      <c r="Z82" s="28" t="s">
+      <c r="Z82" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA82" s="1"/>
-      <c r="AB82" s="28" t="s">
+      <c r="AB82" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC82" s="1"/>
-      <c r="AD82" s="28" t="s">
+      <c r="AD82" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE82" s="1"/>
-      <c r="AF82" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG82" s="13">
+      <c r="AF82" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG82" s="12">
         <v>56</v>
       </c>
-      <c r="AH82" s="28" t="s">
+      <c r="AH82" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI82" s="1"/>
-      <c r="AJ82" s="28" t="s">
+      <c r="AJ82" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK82" s="1"/>
-      <c r="AL82" s="28" t="s">
+      <c r="AL82" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM82" s="1"/>
-      <c r="AN82" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO82" s="6"/>
+      <c r="AN82" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO82" s="5"/>
     </row>
     <row r="83" spans="10:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J83" s="5"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="53">
+      <c r="J83" s="4"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="51">
         <v>8</v>
       </c>
-      <c r="M83" s="25"/>
-      <c r="N83" s="53">
+      <c r="M83" s="24"/>
+      <c r="N83" s="51">
         <v>8</v>
       </c>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
-      <c r="Q83" s="16"/>
+      <c r="Q83" s="15"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
@@ -4235,7 +4231,7 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
-      <c r="Y83" s="13"/>
+      <c r="Y83" s="12"/>
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
@@ -4243,7 +4239,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
       <c r="AF83" s="1"/>
-      <c r="AG83" s="13"/>
+      <c r="AG83" s="12"/>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1"/>
       <c r="AJ83" s="1"/>
@@ -4251,85 +4247,85 @@
       <c r="AL83" s="1"/>
       <c r="AM83" s="1"/>
       <c r="AN83" s="1"/>
-      <c r="AO83" s="6"/>
+      <c r="AO83" s="5"/>
     </row>
     <row r="84" spans="10:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J84" s="5"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="20"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="19"/>
       <c r="M84" s="1"/>
-      <c r="N84" s="20"/>
+      <c r="N84" s="19"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
-      <c r="Q84" s="16">
+      <c r="Q84" s="15">
         <v>17</v>
       </c>
-      <c r="R84" s="28" t="s">
+      <c r="R84" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S84" s="1"/>
-      <c r="T84" s="28" t="s">
+      <c r="T84" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U84" s="1"/>
-      <c r="V84" s="28" t="s">
+      <c r="V84" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W84" s="1"/>
-      <c r="X84" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y84" s="13">
+      <c r="X84" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y84" s="12">
         <v>37</v>
       </c>
-      <c r="Z84" s="28" t="s">
+      <c r="Z84" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA84" s="1"/>
-      <c r="AB84" s="28" t="s">
+      <c r="AB84" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC84" s="1"/>
-      <c r="AD84" s="28" t="s">
+      <c r="AD84" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE84" s="1"/>
-      <c r="AF84" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG84" s="13">
+      <c r="AF84" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG84" s="12">
         <v>57</v>
       </c>
-      <c r="AH84" s="28" t="s">
+      <c r="AH84" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI84" s="1"/>
-      <c r="AJ84" s="28" t="s">
+      <c r="AJ84" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK84" s="1"/>
-      <c r="AL84" s="28" t="s">
+      <c r="AL84" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM84" s="1"/>
-      <c r="AN84" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO84" s="6"/>
+      <c r="AN84" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO84" s="5"/>
     </row>
     <row r="85" spans="10:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J85" s="5"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="53">
+      <c r="J85" s="4"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="51">
         <v>9</v>
       </c>
-      <c r="M85" s="25"/>
-      <c r="N85" s="53">
+      <c r="M85" s="24"/>
+      <c r="N85" s="51">
         <v>9</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
-      <c r="Q85" s="16"/>
+      <c r="Q85" s="15"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
@@ -4337,7 +4333,7 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
-      <c r="Y85" s="13"/>
+      <c r="Y85" s="12"/>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
@@ -4345,7 +4341,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
       <c r="AF85" s="1"/>
-      <c r="AG85" s="13"/>
+      <c r="AG85" s="12"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
       <c r="AJ85" s="1"/>
@@ -4353,81 +4349,81 @@
       <c r="AL85" s="1"/>
       <c r="AM85" s="1"/>
       <c r="AN85" s="1"/>
-      <c r="AO85" s="6"/>
+      <c r="AO85" s="5"/>
     </row>
     <row r="86" spans="10:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J86" s="5"/>
-      <c r="K86" s="26"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="25"/>
       <c r="L86" s="1"/>
-      <c r="M86" s="26"/>
+      <c r="M86" s="25"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
-      <c r="Q86" s="16">
+      <c r="Q86" s="15">
         <v>18</v>
       </c>
-      <c r="R86" s="28" t="s">
+      <c r="R86" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S86" s="1"/>
-      <c r="T86" s="28" t="s">
+      <c r="T86" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U86" s="1"/>
-      <c r="V86" s="28" t="s">
+      <c r="V86" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W86" s="1"/>
-      <c r="X86" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y86" s="13">
+      <c r="X86" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y86" s="12">
         <v>38</v>
       </c>
-      <c r="Z86" s="28" t="s">
+      <c r="Z86" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA86" s="1"/>
-      <c r="AB86" s="28" t="s">
+      <c r="AB86" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC86" s="1"/>
-      <c r="AD86" s="28" t="s">
+      <c r="AD86" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE86" s="1"/>
-      <c r="AF86" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG86" s="13">
+      <c r="AF86" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG86" s="12">
         <v>58</v>
       </c>
-      <c r="AH86" s="28" t="s">
+      <c r="AH86" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI86" s="1"/>
-      <c r="AJ86" s="28" t="s">
+      <c r="AJ86" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK86" s="1"/>
-      <c r="AL86" s="28" t="s">
+      <c r="AL86" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM86" s="1"/>
-      <c r="AN86" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO86" s="6"/>
+      <c r="AN86" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO86" s="5"/>
     </row>
     <row r="87" spans="10:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J87" s="5"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="28"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="27"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
-      <c r="Q87" s="16"/>
+      <c r="Q87" s="15"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
@@ -4435,7 +4431,7 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
-      <c r="Y87" s="13"/>
+      <c r="Y87" s="12"/>
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
@@ -4443,7 +4439,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
       <c r="AF87" s="1"/>
-      <c r="AG87" s="13"/>
+      <c r="AG87" s="12"/>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1"/>
       <c r="AJ87" s="1"/>
@@ -4451,81 +4447,81 @@
       <c r="AL87" s="1"/>
       <c r="AM87" s="1"/>
       <c r="AN87" s="1"/>
-      <c r="AO87" s="6"/>
+      <c r="AO87" s="5"/>
     </row>
     <row r="88" spans="10:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J88" s="5"/>
+      <c r="J88" s="4"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="20"/>
+      <c r="L88" s="19"/>
       <c r="M88" s="1"/>
-      <c r="N88" s="20"/>
+      <c r="N88" s="19"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
-      <c r="Q88" s="16">
+      <c r="Q88" s="15">
         <v>19</v>
       </c>
-      <c r="R88" s="28" t="s">
+      <c r="R88" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S88" s="1"/>
-      <c r="T88" s="28" t="s">
+      <c r="T88" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U88" s="1"/>
-      <c r="V88" s="28" t="s">
+      <c r="V88" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W88" s="1"/>
-      <c r="X88" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y88" s="13">
+      <c r="X88" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y88" s="12">
         <v>39</v>
       </c>
-      <c r="Z88" s="28" t="s">
+      <c r="Z88" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA88" s="1"/>
-      <c r="AB88" s="28" t="s">
+      <c r="AB88" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC88" s="1"/>
-      <c r="AD88" s="28" t="s">
+      <c r="AD88" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE88" s="1"/>
-      <c r="AF88" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG88" s="13">
+      <c r="AF88" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG88" s="12">
         <v>59</v>
       </c>
-      <c r="AH88" s="28" t="s">
+      <c r="AH88" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI88" s="1"/>
-      <c r="AJ88" s="28" t="s">
+      <c r="AJ88" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK88" s="1"/>
-      <c r="AL88" s="28" t="s">
+      <c r="AL88" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM88" s="1"/>
-      <c r="AN88" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO88" s="6"/>
+      <c r="AN88" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO88" s="5"/>
     </row>
     <row r="89" spans="10:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J89" s="5"/>
+      <c r="J89" s="4"/>
       <c r="K89" s="1"/>
-      <c r="L89" s="20"/>
+      <c r="L89" s="19"/>
       <c r="M89" s="1"/>
-      <c r="N89" s="20"/>
+      <c r="N89" s="19"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
-      <c r="Q89" s="16"/>
+      <c r="Q89" s="15"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
@@ -4533,7 +4529,7 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
-      <c r="Y89" s="13"/>
+      <c r="Y89" s="12"/>
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
@@ -4541,7 +4537,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
       <c r="AF89" s="1"/>
-      <c r="AG89" s="13"/>
+      <c r="AG89" s="12"/>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1"/>
       <c r="AJ89" s="1"/>
@@ -4549,105 +4545,105 @@
       <c r="AL89" s="1"/>
       <c r="AM89" s="1"/>
       <c r="AN89" s="1"/>
-      <c r="AO89" s="6"/>
+      <c r="AO89" s="5"/>
     </row>
     <row r="90" spans="10:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J90" s="5"/>
+      <c r="J90" s="4"/>
       <c r="K90" s="1"/>
-      <c r="L90" s="20"/>
+      <c r="L90" s="19"/>
       <c r="M90" s="1"/>
-      <c r="N90" s="20"/>
+      <c r="N90" s="19"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
-      <c r="Q90" s="16">
+      <c r="Q90" s="15">
         <v>20</v>
       </c>
-      <c r="R90" s="28" t="s">
+      <c r="R90" s="27" t="s">
         <v>14</v>
       </c>
       <c r="S90" s="1"/>
-      <c r="T90" s="28" t="s">
+      <c r="T90" s="27" t="s">
         <v>14</v>
       </c>
       <c r="U90" s="1"/>
-      <c r="V90" s="28" t="s">
+      <c r="V90" s="27" t="s">
         <v>14</v>
       </c>
       <c r="W90" s="1"/>
-      <c r="X90" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y90" s="13">
+      <c r="X90" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y90" s="12">
         <v>40</v>
       </c>
-      <c r="Z90" s="28" t="s">
+      <c r="Z90" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AA90" s="1"/>
-      <c r="AB90" s="28" t="s">
+      <c r="AB90" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AC90" s="1"/>
-      <c r="AD90" s="28" t="s">
+      <c r="AD90" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AE90" s="1"/>
-      <c r="AF90" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG90" s="13">
+      <c r="AF90" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG90" s="12">
         <v>60</v>
       </c>
-      <c r="AH90" s="28" t="s">
+      <c r="AH90" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AI90" s="1"/>
-      <c r="AJ90" s="28" t="s">
+      <c r="AJ90" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AK90" s="1"/>
-      <c r="AL90" s="28" t="s">
+      <c r="AL90" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AM90" s="1"/>
-      <c r="AN90" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO90" s="6"/>
+      <c r="AN90" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO90" s="5"/>
     </row>
     <row r="91" spans="10:41" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J91" s="7"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="8"/>
-      <c r="V91" s="8"/>
-      <c r="W91" s="8"/>
-      <c r="X91" s="8"/>
-      <c r="Y91" s="14"/>
-      <c r="Z91" s="8"/>
-      <c r="AA91" s="8"/>
-      <c r="AB91" s="8"/>
-      <c r="AC91" s="8"/>
-      <c r="AD91" s="8"/>
-      <c r="AE91" s="8"/>
-      <c r="AF91" s="8"/>
-      <c r="AG91" s="14"/>
-      <c r="AH91" s="8"/>
-      <c r="AI91" s="8"/>
-      <c r="AJ91" s="8"/>
-      <c r="AK91" s="8"/>
-      <c r="AL91" s="8"/>
-      <c r="AM91" s="8"/>
-      <c r="AN91" s="8"/>
-      <c r="AO91" s="9"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="13"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+      <c r="AC91" s="7"/>
+      <c r="AD91" s="7"/>
+      <c r="AE91" s="7"/>
+      <c r="AF91" s="7"/>
+      <c r="AG91" s="13"/>
+      <c r="AH91" s="7"/>
+      <c r="AI91" s="7"/>
+      <c r="AJ91" s="7"/>
+      <c r="AK91" s="7"/>
+      <c r="AL91" s="7"/>
+      <c r="AM91" s="7"/>
+      <c r="AN91" s="7"/>
+      <c r="AO91" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4666,6 +4662,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/卡模/Answer Sheet.xlsx
+++ b/data/卡模/Answer Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="35">
   <si>
     <t>û</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,14 @@
   </si>
   <si>
     <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[    ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[   ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,6 +510,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -527,18 +547,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -826,25 +834,25 @@
   </sheetPr>
   <dimension ref="D1:AO91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P68" sqref="P68"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS62" sqref="AS62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="6.21875" customWidth="1"/>
-    <col min="10" max="11" width="4" customWidth="1"/>
-    <col min="12" max="12" width="4" style="17" customWidth="1"/>
-    <col min="13" max="13" width="4" customWidth="1"/>
-    <col min="14" max="14" width="4" style="17" customWidth="1"/>
-    <col min="15" max="16" width="4" customWidth="1"/>
-    <col min="17" max="17" width="4" style="10" customWidth="1"/>
-    <col min="18" max="24" width="4" customWidth="1"/>
-    <col min="25" max="25" width="4" style="10" customWidth="1"/>
-    <col min="26" max="32" width="4" customWidth="1"/>
-    <col min="33" max="33" width="4" style="10" customWidth="1"/>
-    <col min="34" max="41" width="4" customWidth="1"/>
+    <col min="10" max="11" width="3.5546875" customWidth="1"/>
+    <col min="12" max="12" width="3.5546875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" customWidth="1"/>
+    <col min="14" max="14" width="3.5546875" style="17" customWidth="1"/>
+    <col min="15" max="16" width="3.5546875" customWidth="1"/>
+    <col min="17" max="17" width="3.88671875" style="10" customWidth="1"/>
+    <col min="18" max="24" width="3.88671875" customWidth="1"/>
+    <col min="25" max="25" width="3.88671875" style="10" customWidth="1"/>
+    <col min="26" max="32" width="3.88671875" customWidth="1"/>
+    <col min="33" max="33" width="3.88671875" style="10" customWidth="1"/>
+    <col min="34" max="41" width="3.88671875" customWidth="1"/>
     <col min="42" max="42" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -908,11 +916,11 @@
       <c r="AO2" s="35"/>
     </row>
     <row r="3" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
       <c r="M3" s="2"/>
       <c r="N3" s="18"/>
       <c r="O3" s="2"/>
@@ -944,9 +952,9 @@
       <c r="AO3" s="3"/>
     </row>
     <row r="4" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="1"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
@@ -984,9 +992,9 @@
       <c r="AO4" s="5"/>
     </row>
     <row r="5" spans="10:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
       <c r="M5" s="7"/>
       <c r="N5" s="21"/>
       <c r="O5" s="7"/>
@@ -1018,11 +1026,11 @@
       <c r="AO5" s="5"/>
     </row>
     <row r="6" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
       <c r="M6" s="2"/>
       <c r="N6" s="18"/>
       <c r="O6" s="2"/>
@@ -1060,9 +1068,9 @@
       <c r="AO6" s="5"/>
     </row>
     <row r="7" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
       <c r="M7" s="28"/>
       <c r="N7" s="29"/>
       <c r="O7" s="28"/>
@@ -1094,9 +1102,9 @@
       <c r="AO7" s="5"/>
     </row>
     <row r="8" spans="10:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="7"/>
       <c r="N8" s="21"/>
       <c r="O8" s="7"/>
@@ -1134,10 +1142,10 @@
       <c r="AO8" s="5"/>
     </row>
     <row r="9" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="45"/>
+      <c r="K9" s="49"/>
       <c r="L9" s="19"/>
       <c r="M9" s="1"/>
       <c r="N9" s="19"/>
@@ -1170,12 +1178,12 @@
       <c r="AO9" s="5"/>
     </row>
     <row r="10" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="48" t="s">
+      <c r="J10" s="48"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="48"/>
+      <c r="M10" s="52"/>
       <c r="N10" s="19"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1212,10 +1220,10 @@
       <c r="AO10" s="5"/>
     </row>
     <row r="11" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="22"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1246,12 +1254,12 @@
       <c r="AO11" s="5"/>
     </row>
     <row r="12" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="48" t="s">
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="48"/>
+      <c r="M12" s="52"/>
       <c r="N12" s="19"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1288,10 +1296,10 @@
       <c r="AO12" s="5"/>
     </row>
     <row r="13" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
       <c r="N13" s="20" t="s">
         <v>27</v>
       </c>
@@ -1328,8 +1336,8 @@
       <c r="AO13" s="5"/>
     </row>
     <row r="14" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
       <c r="L14" s="19"/>
       <c r="M14" s="1"/>
       <c r="N14" s="19"/>
@@ -1368,8 +1376,8 @@
       <c r="AO14" s="5"/>
     </row>
     <row r="15" spans="10:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="21"/>
       <c r="M15" s="7"/>
       <c r="N15" s="21"/>
@@ -1402,16 +1410,16 @@
       <c r="AO15" s="5"/>
     </row>
     <row r="16" spans="10:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49" t="s">
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="15">
         <v>7</v>
@@ -1446,12 +1454,12 @@
       <c r="AO16" s="5"/>
     </row>
     <row r="17" spans="9:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17" s="52"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="1"/>
@@ -2529,11 +2537,11 @@
       <c r="AO50" s="35"/>
     </row>
     <row r="51" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J51" s="40" t="s">
+      <c r="J51" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
       <c r="M51" s="2"/>
       <c r="N51" s="18"/>
       <c r="O51" s="2"/>
@@ -2565,9 +2573,9 @@
       <c r="AO51" s="5"/>
     </row>
     <row r="52" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J52" s="42"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
       <c r="M52" s="1"/>
       <c r="N52" s="19"/>
       <c r="O52" s="1"/>
@@ -2584,11 +2592,11 @@
       </c>
       <c r="U52" s="1"/>
       <c r="V52" s="26" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="W52" s="1"/>
       <c r="X52" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y52" s="12">
         <v>21</v>
@@ -2606,7 +2614,7 @@
       </c>
       <c r="AE52" s="1"/>
       <c r="AF52" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG52" s="12">
         <v>41</v>
@@ -2629,9 +2637,9 @@
       <c r="AO52" s="5"/>
     </row>
     <row r="53" spans="4:41" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J53" s="42"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
       <c r="M53" s="7"/>
       <c r="N53" s="21"/>
       <c r="O53" s="7"/>
@@ -2663,11 +2671,11 @@
       <c r="AO53" s="5"/>
     </row>
     <row r="54" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J54" s="42" t="s">
+      <c r="J54" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
       <c r="M54" s="2"/>
       <c r="N54" s="18"/>
       <c r="O54" s="2"/>
@@ -2688,7 +2696,7 @@
       </c>
       <c r="W54" s="1"/>
       <c r="X54" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y54" s="12">
         <v>22</v>
@@ -2706,7 +2714,7 @@
       </c>
       <c r="AE54" s="1"/>
       <c r="AF54" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG54" s="12">
         <v>42</v>
@@ -2729,9 +2737,9 @@
       <c r="AO54" s="5"/>
     </row>
     <row r="55" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J55" s="42"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
       <c r="M55" s="28"/>
       <c r="N55" s="29"/>
       <c r="O55" s="28"/>
@@ -2763,9 +2771,9 @@
       <c r="AO55" s="5"/>
     </row>
     <row r="56" spans="4:41" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J56" s="42"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
       <c r="M56" s="7"/>
       <c r="N56" s="21"/>
       <c r="O56" s="7"/>
@@ -2786,7 +2794,7 @@
       </c>
       <c r="W56" s="1"/>
       <c r="X56" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y56" s="12">
         <v>23</v>
@@ -2804,7 +2812,7 @@
       </c>
       <c r="AE56" s="1"/>
       <c r="AF56" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG56" s="12">
         <v>43</v>
@@ -2827,10 +2835,10 @@
       <c r="AO56" s="5"/>
     </row>
     <row r="57" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J57" s="44" t="s">
+      <c r="J57" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="45"/>
+      <c r="K57" s="49"/>
       <c r="L57" s="19"/>
       <c r="M57" s="1"/>
       <c r="N57" s="19"/>
@@ -2863,12 +2871,12 @@
       <c r="AO57" s="5"/>
     </row>
     <row r="58" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J58" s="44"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="48" t="s">
+      <c r="J58" s="48"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="M58" s="48"/>
+      <c r="M58" s="52"/>
       <c r="N58" s="19"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -2888,7 +2896,7 @@
       </c>
       <c r="W58" s="1"/>
       <c r="X58" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y58" s="12">
         <v>24</v>
@@ -2906,7 +2914,7 @@
       </c>
       <c r="AE58" s="1"/>
       <c r="AF58" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG58" s="12">
         <v>44</v>
@@ -2929,10 +2937,10 @@
       <c r="AO58" s="5"/>
     </row>
     <row r="59" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J59" s="44"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
       <c r="N59" s="22"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -2963,12 +2971,12 @@
       <c r="AO59" s="5"/>
     </row>
     <row r="60" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J60" s="44"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="48" t="s">
+      <c r="J60" s="48"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="M60" s="48"/>
+      <c r="M60" s="52"/>
       <c r="N60" s="19"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -2988,7 +2996,7 @@
       </c>
       <c r="W60" s="1"/>
       <c r="X60" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y60" s="12">
         <v>25</v>
@@ -3006,7 +3014,7 @@
       </c>
       <c r="AE60" s="1"/>
       <c r="AF60" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG60" s="12">
         <v>45</v>
@@ -3029,10 +3037,10 @@
       <c r="AO60" s="5"/>
     </row>
     <row r="61" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J61" s="44"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
       <c r="N61" s="20" t="s">
         <v>11</v>
       </c>
@@ -3069,8 +3077,8 @@
       <c r="AO61" s="5"/>
     </row>
     <row r="62" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J62" s="44"/>
-      <c r="K62" s="45"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="49"/>
       <c r="L62" s="19"/>
       <c r="M62" s="1"/>
       <c r="N62" s="19"/>
@@ -3092,7 +3100,7 @@
       </c>
       <c r="W62" s="1"/>
       <c r="X62" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y62" s="12">
         <v>26</v>
@@ -3110,7 +3118,7 @@
       </c>
       <c r="AE62" s="1"/>
       <c r="AF62" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG62" s="12">
         <v>46</v>
@@ -3133,8 +3141,8 @@
       <c r="AO62" s="5"/>
     </row>
     <row r="63" spans="4:41" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J63" s="46"/>
-      <c r="K63" s="47"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="51"/>
       <c r="L63" s="21"/>
       <c r="M63" s="7"/>
       <c r="N63" s="21"/>
@@ -3168,16 +3176,16 @@
     </row>
     <row r="64" spans="4:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D64" s="27"/>
-      <c r="J64" s="51" t="s">
+      <c r="J64" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49" t="s">
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="15">
         <v>7</v>
@@ -3195,7 +3203,7 @@
       </c>
       <c r="W64" s="1"/>
       <c r="X64" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y64" s="12">
         <v>27</v>
@@ -3213,7 +3221,7 @@
       </c>
       <c r="AE64" s="1"/>
       <c r="AF64" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG64" s="12">
         <v>47</v>
@@ -3236,12 +3244,12 @@
       <c r="AO64" s="5"/>
     </row>
     <row r="65" spans="9:41" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J65" s="52"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="50"/>
-      <c r="N65" s="50"/>
-      <c r="O65" s="50"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="15"/>
       <c r="R65" s="1"/>
@@ -3293,7 +3301,7 @@
       </c>
       <c r="W66" s="1"/>
       <c r="X66" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y66" s="12">
         <v>28</v>
@@ -3311,7 +3319,7 @@
       </c>
       <c r="AE66" s="1"/>
       <c r="AF66" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG66" s="12">
         <v>48</v>
@@ -3393,7 +3401,7 @@
       </c>
       <c r="W68" s="1"/>
       <c r="X68" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y68" s="12">
         <v>29</v>
@@ -3411,7 +3419,7 @@
       </c>
       <c r="AE68" s="1"/>
       <c r="AF68" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG68" s="12">
         <v>49</v>
@@ -3493,7 +3501,7 @@
       </c>
       <c r="W70" s="1"/>
       <c r="X70" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y70" s="12">
         <v>30</v>
@@ -3511,7 +3519,7 @@
       </c>
       <c r="AE70" s="1"/>
       <c r="AF70" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG70" s="12">
         <v>50</v>
@@ -3593,7 +3601,7 @@
       </c>
       <c r="W72" s="1"/>
       <c r="X72" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y72" s="12">
         <v>31</v>
@@ -3611,7 +3619,7 @@
       </c>
       <c r="AE72" s="1"/>
       <c r="AF72" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG72" s="12">
         <v>51</v>
@@ -3694,7 +3702,7 @@
       </c>
       <c r="W74" s="1"/>
       <c r="X74" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y74" s="12">
         <v>32</v>
@@ -3712,7 +3720,7 @@
       </c>
       <c r="AE74" s="1"/>
       <c r="AF74" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG74" s="12">
         <v>52</v>
@@ -3794,7 +3802,7 @@
       </c>
       <c r="W76" s="1"/>
       <c r="X76" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y76" s="12">
         <v>33</v>
@@ -3812,7 +3820,7 @@
       </c>
       <c r="AE76" s="1"/>
       <c r="AF76" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG76" s="12">
         <v>53</v>
@@ -3894,7 +3902,7 @@
       </c>
       <c r="W78" s="1"/>
       <c r="X78" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y78" s="12">
         <v>34</v>
@@ -3912,7 +3920,7 @@
       </c>
       <c r="AE78" s="1"/>
       <c r="AF78" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG78" s="12">
         <v>54</v>
@@ -3994,7 +4002,7 @@
       </c>
       <c r="W80" s="1"/>
       <c r="X80" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y80" s="12">
         <v>35</v>
@@ -4012,7 +4020,7 @@
       </c>
       <c r="AE80" s="1"/>
       <c r="AF80" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG80" s="12">
         <v>55</v>
@@ -4094,7 +4102,7 @@
       </c>
       <c r="W82" s="1"/>
       <c r="X82" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y82" s="12">
         <v>36</v>
@@ -4112,7 +4120,7 @@
       </c>
       <c r="AE82" s="1"/>
       <c r="AF82" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG82" s="12">
         <v>56</v>
@@ -4194,7 +4202,7 @@
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y84" s="12">
         <v>37</v>
@@ -4212,7 +4220,7 @@
       </c>
       <c r="AE84" s="1"/>
       <c r="AF84" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG84" s="12">
         <v>57</v>
@@ -4296,7 +4304,7 @@
       </c>
       <c r="W86" s="1"/>
       <c r="X86" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y86" s="12">
         <v>38</v>
@@ -4314,7 +4322,7 @@
       </c>
       <c r="AE86" s="1"/>
       <c r="AF86" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG86" s="12">
         <v>58</v>
@@ -4394,7 +4402,7 @@
       </c>
       <c r="W88" s="1"/>
       <c r="X88" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y88" s="12">
         <v>39</v>
@@ -4412,7 +4420,7 @@
       </c>
       <c r="AE88" s="1"/>
       <c r="AF88" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG88" s="12">
         <v>59</v>
@@ -4492,7 +4500,7 @@
       </c>
       <c r="W90" s="1"/>
       <c r="X90" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y90" s="12">
         <v>40</v>
@@ -4510,7 +4518,7 @@
       </c>
       <c r="AE90" s="1"/>
       <c r="AF90" s="26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG90" s="12">
         <v>60</v>
@@ -4547,7 +4555,7 @@
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
       <c r="W91" s="7"/>
-      <c r="X91" s="7"/>
+      <c r="X91" s="1"/>
       <c r="Y91" s="13"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="7"/>
@@ -4555,7 +4563,7 @@
       <c r="AC91" s="7"/>
       <c r="AD91" s="7"/>
       <c r="AE91" s="7"/>
-      <c r="AF91" s="7"/>
+      <c r="AF91" s="1"/>
       <c r="AG91" s="13"/>
       <c r="AH91" s="7"/>
       <c r="AI91" s="7"/>
@@ -4568,6 +4576,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J3:L5"/>
+    <mergeCell ref="J6:L8"/>
+    <mergeCell ref="J9:K15"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L12:M13"/>
     <mergeCell ref="M16:O17"/>
     <mergeCell ref="J16:L17"/>
     <mergeCell ref="J64:L65"/>
@@ -4577,14 +4590,9 @@
     <mergeCell ref="J57:K63"/>
     <mergeCell ref="L58:M59"/>
     <mergeCell ref="L60:M61"/>
-    <mergeCell ref="J3:L5"/>
-    <mergeCell ref="J6:L8"/>
-    <mergeCell ref="J9:K15"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L12:M13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="41" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>